--- a/Civilworks cost/Work Schedule/dframes.xlsx
+++ b/Civilworks cost/Work Schedule/dframes.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\Work Schedule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Type_A_211M_724_To_935_S" sheetId="1" r:id="rId1"/>
-    <sheet name="Type_A_50M_965_TO_1015_S" sheetId="2" r:id="rId2"/>
+    <sheet name="Type_A_211M_724_To_935_S-mat" sheetId="2" r:id="rId2"/>
+    <sheet name="Type_A_50M_965_TO_1015_S" sheetId="3" r:id="rId3"/>
+    <sheet name="Type_A_50M_965_TO_1015_S-mat" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
   <si>
     <t>TaskNo</t>
   </si>
@@ -86,6 +83,285 @@
   </si>
   <si>
     <t>sqm</t>
+  </si>
+  <si>
+    <t>Task_Name</t>
+  </si>
+  <si>
+    <t>Durations</t>
+  </si>
+  <si>
+    <t>Task Vol</t>
+  </si>
+  <si>
+    <t>Work_rate</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>D55</t>
+  </si>
+  <si>
+    <t>D56</t>
+  </si>
+  <si>
+    <t>D57</t>
+  </si>
+  <si>
+    <t>D58</t>
+  </si>
+  <si>
+    <t>D59</t>
+  </si>
+  <si>
+    <t>D60</t>
+  </si>
+  <si>
+    <t>D61</t>
+  </si>
+  <si>
+    <t>D62</t>
+  </si>
+  <si>
+    <t>D63</t>
+  </si>
+  <si>
+    <t>D64</t>
+  </si>
+  <si>
+    <t>D65</t>
+  </si>
+  <si>
+    <t>D66</t>
+  </si>
+  <si>
+    <t>D67</t>
+  </si>
+  <si>
+    <t>D68</t>
+  </si>
+  <si>
+    <t>D69</t>
+  </si>
+  <si>
+    <t>D70</t>
+  </si>
+  <si>
+    <t>D71</t>
+  </si>
+  <si>
+    <t>D72</t>
+  </si>
+  <si>
+    <t>D73</t>
+  </si>
+  <si>
+    <t>D74</t>
+  </si>
+  <si>
+    <t>D75</t>
+  </si>
+  <si>
+    <t>D76</t>
+  </si>
+  <si>
+    <t>D77</t>
+  </si>
+  <si>
+    <t>D78</t>
+  </si>
+  <si>
+    <t>D79</t>
+  </si>
+  <si>
+    <t>D80</t>
+  </si>
+  <si>
+    <t>D81</t>
+  </si>
+  <si>
+    <t>D82</t>
+  </si>
+  <si>
+    <t>D83</t>
+  </si>
+  <si>
+    <t>D84</t>
+  </si>
+  <si>
+    <t>D85</t>
+  </si>
+  <si>
+    <t>D86</t>
+  </si>
+  <si>
+    <t>D87</t>
+  </si>
+  <si>
+    <t>D88</t>
+  </si>
+  <si>
+    <t>D89</t>
   </si>
   <si>
     <t>Curing</t>
@@ -94,8 +370,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,13 +423,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -161,14 +434,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -215,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,10 +512,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,7 +546,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,20 +721,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -501,20 +758,20 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>-1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -524,20 +781,20 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>16</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>33338</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -547,20 +804,20 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>16</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>5012</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -570,20 +827,20 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -593,20 +850,20 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>34</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>6974</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -616,20 +873,20 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -639,20 +896,20 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>6098</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -662,20 +919,20 @@
       <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -685,20 +942,20 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>38350</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -708,16 +965,16 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>100</v>
       </c>
     </row>
@@ -727,14 +984,3214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CR11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:96">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:96">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:96">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>33338</v>
+      </c>
+      <c r="G3">
+        <v>2084</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2084</v>
+      </c>
+      <c r="P3">
+        <v>2084</v>
+      </c>
+      <c r="Q3">
+        <v>2084</v>
+      </c>
+      <c r="R3">
+        <v>2084</v>
+      </c>
+      <c r="S3">
+        <v>2084</v>
+      </c>
+      <c r="T3">
+        <v>2084</v>
+      </c>
+      <c r="U3">
+        <v>2084</v>
+      </c>
+      <c r="V3">
+        <v>2084</v>
+      </c>
+      <c r="W3">
+        <v>2084</v>
+      </c>
+      <c r="X3">
+        <v>2084</v>
+      </c>
+      <c r="Y3">
+        <v>2084</v>
+      </c>
+      <c r="Z3">
+        <v>2084</v>
+      </c>
+      <c r="AA3">
+        <v>2084</v>
+      </c>
+      <c r="AB3">
+        <v>2084</v>
+      </c>
+      <c r="AC3">
+        <v>2084</v>
+      </c>
+      <c r="AD3">
+        <v>2084</v>
+      </c>
+      <c r="AE3">
+        <v>2084</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:96">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>5012</v>
+      </c>
+      <c r="G4">
+        <v>314</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>314</v>
+      </c>
+      <c r="P4">
+        <v>314</v>
+      </c>
+      <c r="Q4">
+        <v>314</v>
+      </c>
+      <c r="R4">
+        <v>314</v>
+      </c>
+      <c r="S4">
+        <v>314</v>
+      </c>
+      <c r="T4">
+        <v>314</v>
+      </c>
+      <c r="U4">
+        <v>314</v>
+      </c>
+      <c r="V4">
+        <v>314</v>
+      </c>
+      <c r="W4">
+        <v>314</v>
+      </c>
+      <c r="X4">
+        <v>314</v>
+      </c>
+      <c r="Y4">
+        <v>314</v>
+      </c>
+      <c r="Z4">
+        <v>314</v>
+      </c>
+      <c r="AA4">
+        <v>314</v>
+      </c>
+      <c r="AB4">
+        <v>314</v>
+      </c>
+      <c r="AC4">
+        <v>314</v>
+      </c>
+      <c r="AD4">
+        <v>314</v>
+      </c>
+      <c r="AE4">
+        <v>314</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>5</v>
+      </c>
+      <c r="AF5">
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AJ5">
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <v>5</v>
+      </c>
+      <c r="AL5">
+        <v>5</v>
+      </c>
+      <c r="AM5">
+        <v>5</v>
+      </c>
+      <c r="AN5">
+        <v>5</v>
+      </c>
+      <c r="AO5">
+        <v>5</v>
+      </c>
+      <c r="AP5">
+        <v>5</v>
+      </c>
+      <c r="AQ5">
+        <v>5</v>
+      </c>
+      <c r="AR5">
+        <v>5</v>
+      </c>
+      <c r="AS5">
+        <v>5</v>
+      </c>
+      <c r="AT5">
+        <v>5</v>
+      </c>
+      <c r="AU5">
+        <v>5</v>
+      </c>
+      <c r="AV5">
+        <v>5</v>
+      </c>
+      <c r="AW5">
+        <v>5</v>
+      </c>
+      <c r="AX5">
+        <v>5</v>
+      </c>
+      <c r="AY5">
+        <v>5</v>
+      </c>
+      <c r="AZ5">
+        <v>5</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:96">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>6974</v>
+      </c>
+      <c r="G6">
+        <v>206</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>206</v>
+      </c>
+      <c r="P6">
+        <v>206</v>
+      </c>
+      <c r="Q6">
+        <v>206</v>
+      </c>
+      <c r="R6">
+        <v>206</v>
+      </c>
+      <c r="S6">
+        <v>206</v>
+      </c>
+      <c r="T6">
+        <v>206</v>
+      </c>
+      <c r="U6">
+        <v>206</v>
+      </c>
+      <c r="V6">
+        <v>206</v>
+      </c>
+      <c r="W6">
+        <v>206</v>
+      </c>
+      <c r="X6">
+        <v>206</v>
+      </c>
+      <c r="Y6">
+        <v>206</v>
+      </c>
+      <c r="Z6">
+        <v>206</v>
+      </c>
+      <c r="AA6">
+        <v>206</v>
+      </c>
+      <c r="AB6">
+        <v>206</v>
+      </c>
+      <c r="AC6">
+        <v>206</v>
+      </c>
+      <c r="AD6">
+        <v>206</v>
+      </c>
+      <c r="AE6">
+        <v>206</v>
+      </c>
+      <c r="AF6">
+        <v>206</v>
+      </c>
+      <c r="AG6">
+        <v>206</v>
+      </c>
+      <c r="AH6">
+        <v>206</v>
+      </c>
+      <c r="AI6">
+        <v>206</v>
+      </c>
+      <c r="AJ6">
+        <v>206</v>
+      </c>
+      <c r="AK6">
+        <v>206</v>
+      </c>
+      <c r="AL6">
+        <v>206</v>
+      </c>
+      <c r="AM6">
+        <v>206</v>
+      </c>
+      <c r="AN6">
+        <v>206</v>
+      </c>
+      <c r="AO6">
+        <v>206</v>
+      </c>
+      <c r="AP6">
+        <v>206</v>
+      </c>
+      <c r="AQ6">
+        <v>206</v>
+      </c>
+      <c r="AR6">
+        <v>206</v>
+      </c>
+      <c r="AS6">
+        <v>206</v>
+      </c>
+      <c r="AT6">
+        <v>206</v>
+      </c>
+      <c r="AU6">
+        <v>206</v>
+      </c>
+      <c r="AV6">
+        <v>206</v>
+      </c>
+      <c r="AW6">
+        <v>206</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>560</v>
+      </c>
+      <c r="G7">
+        <v>56</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>56</v>
+      </c>
+      <c r="AX7">
+        <v>56</v>
+      </c>
+      <c r="AY7">
+        <v>56</v>
+      </c>
+      <c r="AZ7">
+        <v>56</v>
+      </c>
+      <c r="BA7">
+        <v>56</v>
+      </c>
+      <c r="BB7">
+        <v>56</v>
+      </c>
+      <c r="BC7">
+        <v>56</v>
+      </c>
+      <c r="BD7">
+        <v>56</v>
+      </c>
+      <c r="BE7">
+        <v>56</v>
+      </c>
+      <c r="BF7">
+        <v>56</v>
+      </c>
+      <c r="BG7">
+        <v>56</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:96">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>6098</v>
+      </c>
+      <c r="G8">
+        <v>610</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>610</v>
+      </c>
+      <c r="BH8">
+        <v>610</v>
+      </c>
+      <c r="BI8">
+        <v>610</v>
+      </c>
+      <c r="BJ8">
+        <v>610</v>
+      </c>
+      <c r="BK8">
+        <v>610</v>
+      </c>
+      <c r="BL8">
+        <v>610</v>
+      </c>
+      <c r="BM8">
+        <v>610</v>
+      </c>
+      <c r="BN8">
+        <v>610</v>
+      </c>
+      <c r="BO8">
+        <v>610</v>
+      </c>
+      <c r="BP8">
+        <v>610</v>
+      </c>
+      <c r="BQ8">
+        <v>610</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:96">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>560</v>
+      </c>
+      <c r="G9">
+        <v>56</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>56</v>
+      </c>
+      <c r="BR9">
+        <v>56</v>
+      </c>
+      <c r="BS9">
+        <v>56</v>
+      </c>
+      <c r="BT9">
+        <v>56</v>
+      </c>
+      <c r="BU9">
+        <v>56</v>
+      </c>
+      <c r="BV9">
+        <v>56</v>
+      </c>
+      <c r="BW9">
+        <v>56</v>
+      </c>
+      <c r="BX9">
+        <v>56</v>
+      </c>
+      <c r="BY9">
+        <v>56</v>
+      </c>
+      <c r="BZ9">
+        <v>56</v>
+      </c>
+      <c r="CA9">
+        <v>56</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:96">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>38350</v>
+      </c>
+      <c r="G10">
+        <v>3835</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10">
+        <v>0</v>
+      </c>
+      <c r="CA10">
+        <v>3835</v>
+      </c>
+      <c r="CB10">
+        <v>3835</v>
+      </c>
+      <c r="CC10">
+        <v>3835</v>
+      </c>
+      <c r="CD10">
+        <v>3835</v>
+      </c>
+      <c r="CE10">
+        <v>3835</v>
+      </c>
+      <c r="CF10">
+        <v>3835</v>
+      </c>
+      <c r="CG10">
+        <v>3835</v>
+      </c>
+      <c r="CH10">
+        <v>3835</v>
+      </c>
+      <c r="CI10">
+        <v>3835</v>
+      </c>
+      <c r="CJ10">
+        <v>3835</v>
+      </c>
+      <c r="CK10">
+        <v>3835</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:96">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>15</v>
+      </c>
+      <c r="CL11">
+        <v>15</v>
+      </c>
+      <c r="CM11">
+        <v>15</v>
+      </c>
+      <c r="CN11">
+        <v>15</v>
+      </c>
+      <c r="CO11">
+        <v>15</v>
+      </c>
+      <c r="CP11">
+        <v>15</v>
+      </c>
+      <c r="CQ11">
+        <v>15</v>
+      </c>
+      <c r="CR11">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +4211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -777,7 +4234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -800,7 +4257,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -823,7 +4280,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -831,7 +4288,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -846,7 +4303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -869,7 +4326,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -880,7 +4337,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -892,7 +4349,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -903,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -915,7 +4372,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -926,7 +4383,7 @@
         <v>13</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -938,7 +4395,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -949,7 +4406,7 @@
         <v>14</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -961,7 +4418,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -982,6 +4439,2546 @@
       </c>
       <c r="G11">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BX11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:76">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>1188</v>
+      </c>
+      <c r="G3">
+        <v>238</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>238</v>
+      </c>
+      <c r="P3">
+        <v>238</v>
+      </c>
+      <c r="Q3">
+        <v>238</v>
+      </c>
+      <c r="R3">
+        <v>238</v>
+      </c>
+      <c r="S3">
+        <v>238</v>
+      </c>
+      <c r="T3">
+        <v>238</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:76">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>7900</v>
+      </c>
+      <c r="G4">
+        <v>1580</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1580</v>
+      </c>
+      <c r="P4">
+        <v>1580</v>
+      </c>
+      <c r="Q4">
+        <v>1580</v>
+      </c>
+      <c r="R4">
+        <v>1580</v>
+      </c>
+      <c r="S4">
+        <v>1580</v>
+      </c>
+      <c r="T4">
+        <v>1580</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:76">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>5</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AD5">
+        <v>5</v>
+      </c>
+      <c r="AE5">
+        <v>5</v>
+      </c>
+      <c r="AF5">
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <v>5</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AJ5">
+        <v>5</v>
+      </c>
+      <c r="AK5">
+        <v>5</v>
+      </c>
+      <c r="AL5">
+        <v>5</v>
+      </c>
+      <c r="AM5">
+        <v>5</v>
+      </c>
+      <c r="AN5">
+        <v>5</v>
+      </c>
+      <c r="AO5">
+        <v>5</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:76">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>1653</v>
+      </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>49</v>
+      </c>
+      <c r="P6">
+        <v>49</v>
+      </c>
+      <c r="Q6">
+        <v>49</v>
+      </c>
+      <c r="R6">
+        <v>49</v>
+      </c>
+      <c r="S6">
+        <v>49</v>
+      </c>
+      <c r="T6">
+        <v>49</v>
+      </c>
+      <c r="U6">
+        <v>49</v>
+      </c>
+      <c r="V6">
+        <v>49</v>
+      </c>
+      <c r="W6">
+        <v>49</v>
+      </c>
+      <c r="X6">
+        <v>49</v>
+      </c>
+      <c r="Y6">
+        <v>49</v>
+      </c>
+      <c r="Z6">
+        <v>49</v>
+      </c>
+      <c r="AA6">
+        <v>49</v>
+      </c>
+      <c r="AB6">
+        <v>49</v>
+      </c>
+      <c r="AC6">
+        <v>49</v>
+      </c>
+      <c r="AD6">
+        <v>49</v>
+      </c>
+      <c r="AE6">
+        <v>49</v>
+      </c>
+      <c r="AF6">
+        <v>49</v>
+      </c>
+      <c r="AG6">
+        <v>49</v>
+      </c>
+      <c r="AH6">
+        <v>49</v>
+      </c>
+      <c r="AI6">
+        <v>49</v>
+      </c>
+      <c r="AJ6">
+        <v>49</v>
+      </c>
+      <c r="AK6">
+        <v>49</v>
+      </c>
+      <c r="AL6">
+        <v>49</v>
+      </c>
+      <c r="AM6">
+        <v>49</v>
+      </c>
+      <c r="AN6">
+        <v>49</v>
+      </c>
+      <c r="AO6">
+        <v>49</v>
+      </c>
+      <c r="AP6">
+        <v>49</v>
+      </c>
+      <c r="AQ6">
+        <v>49</v>
+      </c>
+      <c r="AR6">
+        <v>49</v>
+      </c>
+      <c r="AS6">
+        <v>49</v>
+      </c>
+      <c r="AT6">
+        <v>49</v>
+      </c>
+      <c r="AU6">
+        <v>49</v>
+      </c>
+      <c r="AV6">
+        <v>49</v>
+      </c>
+      <c r="AW6">
+        <v>49</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:76">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>133</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>27</v>
+      </c>
+      <c r="AX7">
+        <v>27</v>
+      </c>
+      <c r="AY7">
+        <v>27</v>
+      </c>
+      <c r="AZ7">
+        <v>27</v>
+      </c>
+      <c r="BA7">
+        <v>27</v>
+      </c>
+      <c r="BB7">
+        <v>27</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:76">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>1445</v>
+      </c>
+      <c r="G8">
+        <v>289</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>289</v>
+      </c>
+      <c r="BC8">
+        <v>289</v>
+      </c>
+      <c r="BD8">
+        <v>289</v>
+      </c>
+      <c r="BE8">
+        <v>289</v>
+      </c>
+      <c r="BF8">
+        <v>289</v>
+      </c>
+      <c r="BG8">
+        <v>289</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:76">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>133</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>27</v>
+      </c>
+      <c r="BH9">
+        <v>27</v>
+      </c>
+      <c r="BI9">
+        <v>27</v>
+      </c>
+      <c r="BJ9">
+        <v>27</v>
+      </c>
+      <c r="BK9">
+        <v>27</v>
+      </c>
+      <c r="BL9">
+        <v>27</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:76">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>328</v>
+      </c>
+      <c r="G10">
+        <v>66</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>66</v>
+      </c>
+      <c r="BM10">
+        <v>66</v>
+      </c>
+      <c r="BN10">
+        <v>66</v>
+      </c>
+      <c r="BO10">
+        <v>66</v>
+      </c>
+      <c r="BP10">
+        <v>66</v>
+      </c>
+      <c r="BQ10">
+        <v>66</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:76">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>15</v>
+      </c>
+      <c r="BR11">
+        <v>15</v>
+      </c>
+      <c r="BS11">
+        <v>15</v>
+      </c>
+      <c r="BT11">
+        <v>15</v>
+      </c>
+      <c r="BU11">
+        <v>15</v>
+      </c>
+      <c r="BV11">
+        <v>15</v>
+      </c>
+      <c r="BW11">
+        <v>15</v>
+      </c>
+      <c r="BX11">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Work Schedule/dframes.xlsx
+++ b/Civilworks cost/Work Schedule/dframes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\Work Schedule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="22" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Type_A_211M_724_To_935_S" sheetId="1" r:id="rId1"/>
@@ -32,12 +37,12 @@
     <sheet name="RS_3850M_M25200_TO_M36630_S" sheetId="23" r:id="rId23"/>
     <sheet name="RS_3850M_M25200_TO_M36630_S-mat" sheetId="24" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="145">
   <si>
     <t>TaskNo</t>
   </si>
@@ -108,13 +113,13 @@
     <t>Task_Name</t>
   </si>
   <si>
-    <t>Durations</t>
+    <t>Start Day</t>
   </si>
   <si>
-    <t>Task Vol</t>
+    <t>Finish Day</t>
   </si>
   <si>
-    <t>Work_rate</t>
+    <t>Durations</t>
   </si>
   <si>
     <t>D1</t>
@@ -387,6 +392,12 @@
     <t>D90</t>
   </si>
   <si>
+    <t>Task Vol</t>
+  </si>
+  <si>
+    <t>Work_rate</t>
+  </si>
+  <si>
     <t>Curing</t>
   </si>
   <si>
@@ -471,8 +482,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +546,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -581,7 +600,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -613,9 +632,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,6 +667,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -822,14 +843,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -872,7 +893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -895,7 +916,7 @@
         <v>33338</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -918,7 +939,7 @@
         <v>5012</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -941,7 +962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -964,7 +985,7 @@
         <v>6974</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -987,7 +1008,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1010,7 +1031,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1033,7 +1054,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1056,7 +1077,7 @@
         <v>38350</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1085,14 +1106,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CU17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CW17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:99">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,13 +1124,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -1382,13 +1403,19 @@
         <v>115</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:99">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1396,19 +1423,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
       <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -1686,8 +1713,14 @@
       <c r="CU2">
         <v>0</v>
       </c>
+      <c r="CV2">
+        <v>100</v>
+      </c>
+      <c r="CW2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1695,19 +1728,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3">
-        <v>2670</v>
-      </c>
-      <c r="G3">
-        <v>158</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1985,8 +2018,14 @@
       <c r="CU3">
         <v>0</v>
       </c>
+      <c r="CV3">
+        <v>2670</v>
+      </c>
+      <c r="CW3">
+        <v>158</v>
+      </c>
     </row>
-    <row r="4" spans="1:99">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1994,19 +2033,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4">
-        <v>4795</v>
-      </c>
-      <c r="G4">
-        <v>267</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2284,8 +2323,14 @@
       <c r="CU4">
         <v>0</v>
       </c>
+      <c r="CV4">
+        <v>4795</v>
+      </c>
+      <c r="CW4">
+        <v>267</v>
+      </c>
     </row>
-    <row r="5" spans="1:99">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2293,19 +2338,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5">
-        <v>3563</v>
-      </c>
-      <c r="G5">
-        <v>297</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2583,8 +2628,14 @@
       <c r="CU5">
         <v>0</v>
       </c>
+      <c r="CV5">
+        <v>3563</v>
+      </c>
+      <c r="CW5">
+        <v>297</v>
+      </c>
     </row>
-    <row r="6" spans="1:99">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2592,19 +2643,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
-      </c>
-      <c r="F6">
-        <v>2655</v>
-      </c>
-      <c r="G6">
-        <v>443</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2882,8 +2933,14 @@
       <c r="CU6">
         <v>0</v>
       </c>
+      <c r="CV6">
+        <v>2655</v>
+      </c>
+      <c r="CW6">
+        <v>443</v>
+      </c>
     </row>
-    <row r="7" spans="1:99">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2891,19 +2948,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D7">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
+      <c r="F7">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
+      <c r="G7" t="s">
+        <v>135</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3181,8 +3238,14 @@
       <c r="CU7">
         <v>0</v>
       </c>
+      <c r="CV7">
+        <v>100</v>
+      </c>
+      <c r="CW7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:99">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3190,19 +3253,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="F8">
-        <v>2052</v>
-      </c>
-      <c r="G8">
-        <v>294</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3480,8 +3543,14 @@
       <c r="CU8">
         <v>0</v>
       </c>
+      <c r="CV8">
+        <v>2052</v>
+      </c>
+      <c r="CW8">
+        <v>294</v>
+      </c>
     </row>
-    <row r="9" spans="1:99">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3489,19 +3558,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D9">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>55</v>
+      </c>
+      <c r="F9">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="F9">
-        <v>2524</v>
-      </c>
-      <c r="G9">
-        <v>281</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3779,8 +3848,14 @@
       <c r="CU9">
         <v>0</v>
       </c>
+      <c r="CV9">
+        <v>2524</v>
+      </c>
+      <c r="CW9">
+        <v>281</v>
+      </c>
     </row>
-    <row r="10" spans="1:99">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3788,19 +3863,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>61</v>
+      </c>
+      <c r="F10">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>20</v>
-      </c>
-      <c r="F10">
-        <v>1751</v>
-      </c>
-      <c r="G10">
-        <v>117</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -4078,8 +4153,14 @@
       <c r="CU10">
         <v>0</v>
       </c>
+      <c r="CV10">
+        <v>1751</v>
+      </c>
+      <c r="CW10">
+        <v>117</v>
+      </c>
     </row>
-    <row r="11" spans="1:99">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4087,19 +4168,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>62</v>
+      </c>
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>20</v>
-      </c>
-      <c r="F11">
-        <v>361</v>
-      </c>
-      <c r="G11">
-        <v>52</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4377,8 +4458,14 @@
       <c r="CU11">
         <v>0</v>
       </c>
+      <c r="CV11">
+        <v>361</v>
+      </c>
+      <c r="CW11">
+        <v>52</v>
+      </c>
     </row>
-    <row r="12" spans="1:99">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4386,19 +4473,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D12">
+        <v>62</v>
+      </c>
+      <c r="E12">
+        <v>68</v>
+      </c>
+      <c r="F12">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>21</v>
-      </c>
-      <c r="F12">
-        <v>2457</v>
-      </c>
-      <c r="G12">
-        <v>351</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -4676,8 +4763,14 @@
       <c r="CU12">
         <v>0</v>
       </c>
+      <c r="CV12">
+        <v>2457</v>
+      </c>
+      <c r="CW12">
+        <v>351</v>
+      </c>
     </row>
-    <row r="13" spans="1:99">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4685,19 +4778,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>69</v>
+      </c>
+      <c r="F13">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>20</v>
-      </c>
-      <c r="F13">
-        <v>480</v>
-      </c>
-      <c r="G13">
-        <v>69</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4975,8 +5068,14 @@
       <c r="CU13">
         <v>0</v>
       </c>
+      <c r="CV13">
+        <v>480</v>
+      </c>
+      <c r="CW13">
+        <v>69</v>
+      </c>
     </row>
-    <row r="14" spans="1:99">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4984,19 +5083,19 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D14">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>76</v>
+      </c>
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>19</v>
-      </c>
-      <c r="F14">
-        <v>4021</v>
-      </c>
-      <c r="G14">
-        <v>575</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -5274,8 +5373,14 @@
       <c r="CU14">
         <v>0</v>
       </c>
+      <c r="CV14">
+        <v>4021</v>
+      </c>
+      <c r="CW14">
+        <v>575</v>
+      </c>
     </row>
-    <row r="15" spans="1:99">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5283,19 +5388,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D15">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>76</v>
+      </c>
+      <c r="F15">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>19</v>
-      </c>
-      <c r="F15">
-        <v>13683</v>
-      </c>
-      <c r="G15">
-        <v>1955</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -5573,8 +5678,14 @@
       <c r="CU15">
         <v>0</v>
       </c>
+      <c r="CV15">
+        <v>13683</v>
+      </c>
+      <c r="CW15">
+        <v>1955</v>
+      </c>
     </row>
-    <row r="16" spans="1:99">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5582,19 +5693,19 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D16">
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <v>83</v>
+      </c>
+      <c r="F16">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16">
-        <v>1641</v>
-      </c>
-      <c r="G16">
-        <v>235</v>
+      <c r="G16" t="s">
+        <v>135</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -5872,8 +5983,14 @@
       <c r="CU16">
         <v>0</v>
       </c>
+      <c r="CV16">
+        <v>1641</v>
+      </c>
+      <c r="CW16">
+        <v>235</v>
+      </c>
     </row>
-    <row r="17" spans="1:99">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5884,16 +6001,16 @@
         <v>15</v>
       </c>
       <c r="D17">
+        <v>84</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="F17">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>18</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -6170,6 +6287,12 @@
       </c>
       <c r="CU17">
         <v>0</v>
+      </c>
+      <c r="CV17">
+        <v>100</v>
+      </c>
+      <c r="CW17">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6178,14 +6301,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6205,7 +6328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6213,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -6222,13 +6345,13 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6236,7 +6359,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -6251,7 +6374,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6259,7 +6382,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -6274,7 +6397,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6282,7 +6405,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -6297,7 +6420,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6305,7 +6428,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -6320,7 +6443,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6328,22 +6451,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6351,7 +6474,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -6366,7 +6489,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6374,7 +6497,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -6389,7 +6512,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6397,7 +6520,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -6412,7 +6535,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6420,7 +6543,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -6435,7 +6558,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6443,7 +6566,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -6458,7 +6581,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6466,7 +6589,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -6481,7 +6604,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6489,7 +6612,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -6504,7 +6627,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6512,13 +6635,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -6527,7 +6650,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6535,7 +6658,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -6544,13 +6667,13 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G16">
         <v>1185</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6579,14 +6702,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6597,13 +6720,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -6788,8 +6911,14 @@
       <c r="BP1" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="BQ1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6797,19 +6926,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
       <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -6994,8 +7123,14 @@
       <c r="BP2">
         <v>0</v>
       </c>
+      <c r="BQ2">
+        <v>100</v>
+      </c>
+      <c r="BR2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7003,19 +7138,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3">
-        <v>1356</v>
-      </c>
-      <c r="G3">
-        <v>151</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -7200,8 +7335,14 @@
       <c r="BP3">
         <v>0</v>
       </c>
+      <c r="BQ3">
+        <v>1356</v>
+      </c>
+      <c r="BR3">
+        <v>151</v>
+      </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7209,19 +7350,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4">
-        <v>2951</v>
-      </c>
-      <c r="G4">
-        <v>269</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -7406,8 +7547,14 @@
       <c r="BP4">
         <v>0</v>
       </c>
+      <c r="BQ4">
+        <v>2951</v>
+      </c>
+      <c r="BR4">
+        <v>269</v>
+      </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7415,19 +7562,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5">
-        <v>1781</v>
-      </c>
-      <c r="G5">
-        <v>297</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -7612,8 +7759,14 @@
       <c r="BP5">
         <v>0</v>
       </c>
+      <c r="BQ5">
+        <v>1781</v>
+      </c>
+      <c r="BR5">
+        <v>297</v>
+      </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7621,19 +7774,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
-      </c>
-      <c r="F6">
-        <v>3917</v>
-      </c>
-      <c r="G6">
-        <v>560</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -7818,8 +7971,14 @@
       <c r="BP6">
         <v>0</v>
       </c>
+      <c r="BQ6">
+        <v>3917</v>
+      </c>
+      <c r="BR6">
+        <v>560</v>
+      </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7827,19 +7986,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="F7">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
+      <c r="G7" t="s">
+        <v>135</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -8024,8 +8183,14 @@
       <c r="BP7">
         <v>0</v>
       </c>
+      <c r="BQ7">
+        <v>100</v>
+      </c>
+      <c r="BR7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8033,19 +8198,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="F8">
-        <v>1482</v>
-      </c>
-      <c r="G8">
-        <v>297</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -8230,8 +8395,14 @@
       <c r="BP8">
         <v>0</v>
       </c>
+      <c r="BQ8">
+        <v>1482</v>
+      </c>
+      <c r="BR8">
+        <v>297</v>
+      </c>
     </row>
-    <row r="9" spans="1:68">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8239,19 +8410,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="F9">
-        <v>1193</v>
-      </c>
-      <c r="G9">
-        <v>299</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -8436,8 +8607,14 @@
       <c r="BP9">
         <v>0</v>
       </c>
+      <c r="BQ9">
+        <v>1193</v>
+      </c>
+      <c r="BR9">
+        <v>299</v>
+      </c>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8445,19 +8622,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>20</v>
-      </c>
-      <c r="F10">
-        <v>1022</v>
-      </c>
-      <c r="G10">
-        <v>69</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -8642,8 +8819,14 @@
       <c r="BP10">
         <v>0</v>
       </c>
+      <c r="BQ10">
+        <v>1022</v>
+      </c>
+      <c r="BR10">
+        <v>69</v>
+      </c>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8651,19 +8834,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>20</v>
-      </c>
-      <c r="F11">
-        <v>268</v>
-      </c>
-      <c r="G11">
-        <v>54</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -8848,8 +9031,14 @@
       <c r="BP11">
         <v>0</v>
       </c>
+      <c r="BQ11">
+        <v>268</v>
+      </c>
+      <c r="BR11">
+        <v>54</v>
+      </c>
     </row>
-    <row r="12" spans="1:68">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8857,19 +9046,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D12">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
+      </c>
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>21</v>
-      </c>
-      <c r="F12">
-        <v>1837</v>
-      </c>
-      <c r="G12">
-        <v>368</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -9054,8 +9243,14 @@
       <c r="BP12">
         <v>0</v>
       </c>
+      <c r="BQ12">
+        <v>1837</v>
+      </c>
+      <c r="BR12">
+        <v>368</v>
+      </c>
     </row>
-    <row r="13" spans="1:68">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9063,19 +9258,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>20</v>
-      </c>
-      <c r="F13">
-        <v>358</v>
-      </c>
-      <c r="G13">
-        <v>72</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -9260,8 +9455,14 @@
       <c r="BP13">
         <v>0</v>
       </c>
+      <c r="BQ13">
+        <v>358</v>
+      </c>
+      <c r="BR13">
+        <v>72</v>
+      </c>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9269,19 +9470,19 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D14">
+        <v>43</v>
+      </c>
+      <c r="E14">
+        <v>47</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>19</v>
-      </c>
-      <c r="F14">
-        <v>1851</v>
-      </c>
-      <c r="G14">
-        <v>371</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -9466,8 +9667,14 @@
       <c r="BP14">
         <v>0</v>
       </c>
+      <c r="BQ14">
+        <v>1851</v>
+      </c>
+      <c r="BR14">
+        <v>371</v>
+      </c>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9475,19 +9682,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D15">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>47</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>19</v>
-      </c>
-      <c r="F15">
-        <v>10005</v>
-      </c>
-      <c r="G15">
-        <v>2001</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -9672,8 +9879,14 @@
       <c r="BP15">
         <v>0</v>
       </c>
+      <c r="BQ15">
+        <v>10005</v>
+      </c>
+      <c r="BR15">
+        <v>2001</v>
+      </c>
     </row>
-    <row r="16" spans="1:68">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -9681,19 +9894,19 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D16">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>52</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16">
-        <v>1185</v>
-      </c>
-      <c r="G16">
-        <v>237</v>
+      <c r="G16" t="s">
+        <v>135</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -9878,8 +10091,14 @@
       <c r="BP16">
         <v>0</v>
       </c>
+      <c r="BQ16">
+        <v>1185</v>
+      </c>
+      <c r="BR16">
+        <v>237</v>
+      </c>
     </row>
-    <row r="17" spans="1:68">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -9890,16 +10109,16 @@
         <v>15</v>
       </c>
       <c r="D17">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>59</v>
+      </c>
+      <c r="F17">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>18</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -10083,6 +10302,12 @@
       </c>
       <c r="BP17">
         <v>0</v>
+      </c>
+      <c r="BQ17">
+        <v>100</v>
+      </c>
+      <c r="BR17">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -10091,14 +10316,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10118,7 +10343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10126,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -10135,13 +10360,13 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10149,7 +10374,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -10164,7 +10389,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10172,7 +10397,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -10187,7 +10412,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10195,7 +10420,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -10210,7 +10435,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10218,7 +10443,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -10233,7 +10458,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10241,22 +10466,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10264,7 +10489,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -10279,7 +10504,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10287,7 +10512,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -10302,7 +10527,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10310,7 +10535,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -10325,7 +10550,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10333,7 +10558,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -10348,7 +10573,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10356,7 +10581,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -10371,7 +10596,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10379,7 +10604,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -10394,7 +10619,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10402,13 +10627,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -10417,7 +10642,7 @@
         <v>9358</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10425,7 +10650,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -10434,13 +10659,13 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G15">
         <v>1185</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10469,14 +10694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BO16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10487,13 +10712,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -10669,8 +10894,14 @@
       <c r="BM1" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="BN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:65">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10678,19 +10909,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
       <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -10866,8 +11097,14 @@
       <c r="BM2">
         <v>0</v>
       </c>
+      <c r="BN2">
+        <v>100</v>
+      </c>
+      <c r="BO2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:65">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10875,19 +11112,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3">
-        <v>1270</v>
-      </c>
-      <c r="G3">
-        <v>142</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -11063,8 +11300,14 @@
       <c r="BM3">
         <v>0</v>
       </c>
+      <c r="BN3">
+        <v>1270</v>
+      </c>
+      <c r="BO3">
+        <v>142</v>
+      </c>
     </row>
-    <row r="4" spans="1:65">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11072,19 +11315,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4">
-        <v>2390</v>
-      </c>
-      <c r="G4">
-        <v>218</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -11260,8 +11503,14 @@
       <c r="BM4">
         <v>0</v>
       </c>
+      <c r="BN4">
+        <v>2390</v>
+      </c>
+      <c r="BO4">
+        <v>218</v>
+      </c>
     </row>
-    <row r="5" spans="1:65">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11269,19 +11518,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5">
-        <v>1781</v>
-      </c>
-      <c r="G5">
-        <v>297</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -11457,8 +11706,14 @@
       <c r="BM5">
         <v>0</v>
       </c>
+      <c r="BN5">
+        <v>1781</v>
+      </c>
+      <c r="BO5">
+        <v>297</v>
+      </c>
     </row>
-    <row r="6" spans="1:65">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11466,19 +11721,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
-      </c>
-      <c r="F6">
-        <v>3917</v>
-      </c>
-      <c r="G6">
-        <v>560</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -11654,8 +11909,14 @@
       <c r="BM6">
         <v>0</v>
       </c>
+      <c r="BN6">
+        <v>3917</v>
+      </c>
+      <c r="BO6">
+        <v>560</v>
+      </c>
     </row>
-    <row r="7" spans="1:65">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -11663,19 +11924,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="F7">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
+      <c r="G7" t="s">
+        <v>135</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -11851,8 +12112,14 @@
       <c r="BM7">
         <v>0</v>
       </c>
+      <c r="BN7">
+        <v>100</v>
+      </c>
+      <c r="BO7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:65">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -11860,19 +12127,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="F8">
-        <v>1482</v>
-      </c>
-      <c r="G8">
-        <v>297</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12048,8 +12315,14 @@
       <c r="BM8">
         <v>0</v>
       </c>
+      <c r="BN8">
+        <v>1482</v>
+      </c>
+      <c r="BO8">
+        <v>297</v>
+      </c>
     </row>
-    <row r="9" spans="1:65">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12057,19 +12330,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="F9">
-        <v>1123</v>
-      </c>
-      <c r="G9">
-        <v>281</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -12245,8 +12518,14 @@
       <c r="BM9">
         <v>0</v>
       </c>
+      <c r="BN9">
+        <v>1123</v>
+      </c>
+      <c r="BO9">
+        <v>281</v>
+      </c>
     </row>
-    <row r="10" spans="1:65">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12254,19 +12533,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>20</v>
-      </c>
-      <c r="F10">
-        <v>670</v>
-      </c>
-      <c r="G10">
-        <v>45</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -12442,8 +12721,14 @@
       <c r="BM10">
         <v>0</v>
       </c>
+      <c r="BN10">
+        <v>670</v>
+      </c>
+      <c r="BO10">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:65">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12451,19 +12736,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>20</v>
-      </c>
-      <c r="F11">
-        <v>242</v>
-      </c>
-      <c r="G11">
-        <v>49</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -12639,8 +12924,14 @@
       <c r="BM11">
         <v>0</v>
       </c>
+      <c r="BN11">
+        <v>242</v>
+      </c>
+      <c r="BO11">
+        <v>49</v>
+      </c>
     </row>
-    <row r="12" spans="1:65">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12648,19 +12939,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D12">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
+      </c>
+      <c r="F12">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>21</v>
-      </c>
-      <c r="F12">
-        <v>1668</v>
-      </c>
-      <c r="G12">
-        <v>334</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -12836,8 +13127,14 @@
       <c r="BM12">
         <v>0</v>
       </c>
+      <c r="BN12">
+        <v>1668</v>
+      </c>
+      <c r="BO12">
+        <v>334</v>
+      </c>
     </row>
-    <row r="13" spans="1:65">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12845,19 +13142,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>20</v>
-      </c>
-      <c r="F13">
-        <v>322</v>
-      </c>
-      <c r="G13">
-        <v>65</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -13033,8 +13330,14 @@
       <c r="BM13">
         <v>0</v>
       </c>
+      <c r="BN13">
+        <v>322</v>
+      </c>
+      <c r="BO13">
+        <v>65</v>
+      </c>
     </row>
-    <row r="14" spans="1:65">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13042,19 +13345,19 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>44</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>19</v>
-      </c>
-      <c r="F14">
-        <v>9358</v>
-      </c>
-      <c r="G14">
-        <v>1872</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -13230,8 +13533,14 @@
       <c r="BM14">
         <v>0</v>
       </c>
+      <c r="BN14">
+        <v>9358</v>
+      </c>
+      <c r="BO14">
+        <v>1872</v>
+      </c>
     </row>
-    <row r="15" spans="1:65">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -13239,19 +13548,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D15">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>49</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15">
-        <v>1185</v>
-      </c>
-      <c r="G15">
-        <v>237</v>
+      <c r="G15" t="s">
+        <v>135</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -13427,8 +13736,14 @@
       <c r="BM15">
         <v>0</v>
       </c>
+      <c r="BN15">
+        <v>1185</v>
+      </c>
+      <c r="BO15">
+        <v>237</v>
+      </c>
     </row>
-    <row r="16" spans="1:65">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -13439,16 +13754,16 @@
         <v>15</v>
       </c>
       <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>56</v>
+      </c>
+      <c r="F16">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>18</v>
-      </c>
-      <c r="F16">
-        <v>100</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -13623,6 +13938,12 @@
       </c>
       <c r="BM16">
         <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>100</v>
+      </c>
+      <c r="BO16">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -13631,14 +13952,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13658,7 +13981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13666,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -13675,13 +13998,13 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -13689,7 +14012,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -13704,7 +14027,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -13712,7 +14035,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -13727,7 +14050,7 @@
         <v>11251</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -13735,7 +14058,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -13750,7 +14073,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13758,7 +14081,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6">
         <v>25</v>
@@ -13767,13 +14090,13 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G6">
         <v>9842</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13802,14 +14125,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BZ7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:78">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13820,13 +14145,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -14041,8 +14366,14 @@
       <c r="BZ1" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="CA1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:78">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14050,19 +14381,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
       <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -14277,8 +14608,14 @@
       <c r="BZ2">
         <v>0</v>
       </c>
+      <c r="CA2">
+        <v>100</v>
+      </c>
+      <c r="CB2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:78">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14286,19 +14623,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3">
-        <v>3495</v>
-      </c>
-      <c r="G3">
-        <v>233</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -14513,8 +14850,14 @@
       <c r="BZ3">
         <v>0</v>
       </c>
+      <c r="CA3">
+        <v>3495</v>
+      </c>
+      <c r="CB3">
+        <v>233</v>
+      </c>
     </row>
-    <row r="4" spans="1:78">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14522,19 +14865,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
+      </c>
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4">
-        <v>11251</v>
-      </c>
-      <c r="G4">
-        <v>751</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -14749,8 +15092,14 @@
       <c r="BZ4">
         <v>0</v>
       </c>
+      <c r="CA4">
+        <v>11251</v>
+      </c>
+      <c r="CB4">
+        <v>751</v>
+      </c>
     </row>
-    <row r="5" spans="1:78">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -14758,19 +15107,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
+      </c>
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5">
-        <v>3388</v>
-      </c>
-      <c r="G5">
-        <v>226</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -14985,8 +15334,14 @@
       <c r="BZ5">
         <v>0</v>
       </c>
+      <c r="CA5">
+        <v>3388</v>
+      </c>
+      <c r="CB5">
+        <v>226</v>
+      </c>
     </row>
-    <row r="6" spans="1:78">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -14994,19 +15349,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>62</v>
+      </c>
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6">
-        <v>9842</v>
-      </c>
-      <c r="G6">
-        <v>394</v>
+      <c r="G6" t="s">
+        <v>135</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -15221,8 +15576,14 @@
       <c r="BZ6">
         <v>0</v>
       </c>
+      <c r="CA6">
+        <v>9842</v>
+      </c>
+      <c r="CB6">
+        <v>394</v>
+      </c>
     </row>
-    <row r="7" spans="1:78">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -15233,16 +15594,16 @@
         <v>15</v>
       </c>
       <c r="D7">
+        <v>63</v>
+      </c>
+      <c r="E7">
+        <v>69</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>18</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -15456,6 +15817,12 @@
       </c>
       <c r="BZ7">
         <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>100</v>
+      </c>
+      <c r="CB7">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -15464,14 +15831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15491,7 +15858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -15499,7 +15866,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -15508,13 +15875,13 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -15522,7 +15889,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -15537,7 +15904,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -15545,7 +15912,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -15560,7 +15927,7 @@
         <v>18105</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -15568,7 +15935,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -15583,7 +15950,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -15591,7 +15958,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -15600,13 +15967,13 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G6">
         <v>15836</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -15635,14 +16002,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CY7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:103">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15653,13 +16022,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -15932,25 +16301,31 @@
         <v>115</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:103">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -15958,19 +16333,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
       <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -16260,8 +16635,14 @@
       <c r="CY2">
         <v>0</v>
       </c>
+      <c r="CZ2">
+        <v>100</v>
+      </c>
+      <c r="DA2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:103">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -16269,19 +16650,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3">
-        <v>5623</v>
-      </c>
-      <c r="G3">
-        <v>188</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -16571,8 +16952,14 @@
       <c r="CY3">
         <v>0</v>
       </c>
+      <c r="CZ3">
+        <v>5623</v>
+      </c>
+      <c r="DA3">
+        <v>188</v>
+      </c>
     </row>
-    <row r="4" spans="1:103">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -16580,19 +16967,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>57</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4">
-        <v>18105</v>
-      </c>
-      <c r="G4">
-        <v>906</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -16882,8 +17269,14 @@
       <c r="CY4">
         <v>0</v>
       </c>
+      <c r="CZ4">
+        <v>18105</v>
+      </c>
+      <c r="DA4">
+        <v>906</v>
+      </c>
     </row>
-    <row r="5" spans="1:103">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -16891,19 +17284,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>57</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5">
-        <v>5451</v>
-      </c>
-      <c r="G5">
-        <v>273</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -17193,8 +17586,14 @@
       <c r="CY5">
         <v>0</v>
       </c>
+      <c r="CZ5">
+        <v>5451</v>
+      </c>
+      <c r="DA5">
+        <v>273</v>
+      </c>
     </row>
-    <row r="6" spans="1:103">
+    <row r="6" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -17202,19 +17601,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6">
+        <v>58</v>
+      </c>
+      <c r="E6">
+        <v>87</v>
+      </c>
+      <c r="F6">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6">
-        <v>15836</v>
-      </c>
-      <c r="G6">
-        <v>528</v>
+      <c r="G6" t="s">
+        <v>135</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -17504,8 +17903,14 @@
       <c r="CY6">
         <v>0</v>
       </c>
+      <c r="CZ6">
+        <v>15836</v>
+      </c>
+      <c r="DA6">
+        <v>528</v>
+      </c>
     </row>
-    <row r="7" spans="1:103">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -17516,16 +17921,16 @@
         <v>15</v>
       </c>
       <c r="D7">
+        <v>88</v>
+      </c>
+      <c r="E7">
+        <v>94</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>18</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -17814,6 +18219,12 @@
       </c>
       <c r="CY7">
         <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>100</v>
+      </c>
+      <c r="DA7">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -17822,14 +18233,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17849,7 +18262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -17857,7 +18270,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -17866,13 +18279,13 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -17880,7 +18293,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -17895,7 +18308,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -17903,7 +18316,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -17918,7 +18331,7 @@
         <v>17871</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17926,7 +18339,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -17941,7 +18354,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -17949,7 +18362,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6">
         <v>25</v>
@@ -17958,13 +18371,13 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G6">
         <v>15632</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -17993,14 +18406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CU11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18011,13 +18424,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -18289,8 +18702,14 @@
       <c r="CS1" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="CT1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -18301,16 +18720,16 @@
         <v>6</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -18582,8 +19001,14 @@
       <c r="CS2">
         <v>0</v>
       </c>
+      <c r="CT2">
+        <v>100</v>
+      </c>
+      <c r="CU2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18594,16 +19019,16 @@
         <v>7</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3">
-        <v>33338</v>
-      </c>
-      <c r="G3">
-        <v>2084</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -18875,8 +19300,14 @@
       <c r="CS3">
         <v>0</v>
       </c>
+      <c r="CT3">
+        <v>33338</v>
+      </c>
+      <c r="CU3">
+        <v>2084</v>
+      </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -18887,16 +19318,16 @@
         <v>8</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4">
-        <v>5012</v>
-      </c>
-      <c r="G4">
-        <v>314</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -19168,8 +19599,14 @@
       <c r="CS4">
         <v>0</v>
       </c>
+      <c r="CT4">
+        <v>5012</v>
+      </c>
+      <c r="CU4">
+        <v>314</v>
+      </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -19180,16 +19617,16 @@
         <v>9</v>
       </c>
       <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>44</v>
+      </c>
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -19461,8 +19898,14 @@
       <c r="CS5">
         <v>0</v>
       </c>
+      <c r="CT5">
+        <v>100</v>
+      </c>
+      <c r="CU5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -19473,16 +19916,16 @@
         <v>10</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>41</v>
+      </c>
+      <c r="F6">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6">
-        <v>6974</v>
-      </c>
-      <c r="G6">
-        <v>206</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -19754,8 +20197,14 @@
       <c r="CS6">
         <v>0</v>
       </c>
+      <c r="CT6">
+        <v>6974</v>
+      </c>
+      <c r="CU6">
+        <v>206</v>
+      </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -19766,16 +20215,16 @@
         <v>11</v>
       </c>
       <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>51</v>
+      </c>
+      <c r="F7">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
-      </c>
-      <c r="F7">
-        <v>560</v>
-      </c>
-      <c r="G7">
-        <v>56</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -20047,8 +20496,14 @@
       <c r="CS7">
         <v>0</v>
       </c>
+      <c r="CT7">
+        <v>560</v>
+      </c>
+      <c r="CU7">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:97">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -20059,16 +20514,16 @@
         <v>12</v>
       </c>
       <c r="D8">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>61</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8">
-        <v>6098</v>
-      </c>
-      <c r="G8">
-        <v>610</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -20340,8 +20795,14 @@
       <c r="CS8">
         <v>0</v>
       </c>
+      <c r="CT8">
+        <v>6098</v>
+      </c>
+      <c r="CU8">
+        <v>610</v>
+      </c>
     </row>
-    <row r="9" spans="1:97">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -20352,16 +20813,16 @@
         <v>13</v>
       </c>
       <c r="D9">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>71</v>
+      </c>
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="F9">
-        <v>560</v>
-      </c>
-      <c r="G9">
-        <v>56</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -20633,8 +21094,14 @@
       <c r="CS9">
         <v>0</v>
       </c>
+      <c r="CT9">
+        <v>560</v>
+      </c>
+      <c r="CU9">
+        <v>56</v>
+      </c>
     </row>
-    <row r="10" spans="1:97">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -20645,16 +21112,16 @@
         <v>14</v>
       </c>
       <c r="D10">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>81</v>
+      </c>
+      <c r="F10">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10">
-        <v>38350</v>
-      </c>
-      <c r="G10">
-        <v>3835</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -20926,8 +21393,14 @@
       <c r="CS10">
         <v>0</v>
       </c>
+      <c r="CT10">
+        <v>38350</v>
+      </c>
+      <c r="CU10">
+        <v>3835</v>
+      </c>
     </row>
-    <row r="11" spans="1:97">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -20938,16 +21411,16 @@
         <v>15</v>
       </c>
       <c r="D11">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>88</v>
+      </c>
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>18</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -21218,6 +21691,12 @@
       </c>
       <c r="CS11">
         <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>100</v>
+      </c>
+      <c r="CU11">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -21226,14 +21705,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:85" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21244,13 +21725,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -21480,8 +21961,14 @@
       <c r="CE1" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="CF1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:83">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -21489,19 +21976,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
       <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -21731,8 +22218,14 @@
       <c r="CE2">
         <v>0</v>
       </c>
+      <c r="CF2">
+        <v>100</v>
+      </c>
+      <c r="CG2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:83">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -21740,19 +22233,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3">
-        <v>5551</v>
-      </c>
-      <c r="G3">
-        <v>371</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -21982,8 +22475,14 @@
       <c r="CE3">
         <v>0</v>
       </c>
+      <c r="CF3">
+        <v>5551</v>
+      </c>
+      <c r="CG3">
+        <v>371</v>
+      </c>
     </row>
-    <row r="4" spans="1:83">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -21991,19 +22490,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="F4">
-        <v>17871</v>
-      </c>
-      <c r="G4">
-        <v>894</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -22233,8 +22732,14 @@
       <c r="CE4">
         <v>0</v>
       </c>
+      <c r="CF4">
+        <v>17871</v>
+      </c>
+      <c r="CG4">
+        <v>894</v>
+      </c>
     </row>
-    <row r="5" spans="1:83">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -22242,19 +22747,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5">
-        <v>5380</v>
-      </c>
-      <c r="G5">
-        <v>269</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -22484,8 +22989,14 @@
       <c r="CE5">
         <v>0</v>
       </c>
+      <c r="CF5">
+        <v>5380</v>
+      </c>
+      <c r="CG5">
+        <v>269</v>
+      </c>
     </row>
-    <row r="6" spans="1:83">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -22493,19 +23004,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>67</v>
+      </c>
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6">
-        <v>15632</v>
-      </c>
-      <c r="G6">
-        <v>626</v>
+      <c r="G6" t="s">
+        <v>135</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -22735,8 +23246,14 @@
       <c r="CE6">
         <v>0</v>
       </c>
+      <c r="CF6">
+        <v>15632</v>
+      </c>
+      <c r="CG6">
+        <v>626</v>
+      </c>
     </row>
-    <row r="7" spans="1:83">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -22747,16 +23264,16 @@
         <v>15</v>
       </c>
       <c r="D7">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>74</v>
+      </c>
+      <c r="F7">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>18</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -22985,6 +23502,12 @@
       </c>
       <c r="CE7">
         <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>100</v>
+      </c>
+      <c r="CG7">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -22993,14 +23516,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23020,7 +23545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -23028,7 +23553,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -23037,13 +23562,13 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -23051,7 +23576,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -23066,7 +23591,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -23074,7 +23599,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -23083,13 +23608,13 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G4">
         <v>11722</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -23118,14 +23643,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BR5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" activeCellId="1" sqref="C2:F5 K18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23136,13 +23663,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -23327,8 +23854,14 @@
       <c r="BP1" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="BQ1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -23336,19 +23869,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
       <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -23533,8 +24066,14 @@
       <c r="BP2">
         <v>0</v>
       </c>
+      <c r="BQ2">
+        <v>100</v>
+      </c>
+      <c r="BR2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -23542,19 +24081,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3">
-        <v>3366</v>
-      </c>
-      <c r="G3">
-        <v>225</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -23739,8 +24278,14 @@
       <c r="BP3">
         <v>0</v>
       </c>
+      <c r="BQ3">
+        <v>3366</v>
+      </c>
+      <c r="BR3">
+        <v>225</v>
+      </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -23748,19 +24293,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>52</v>
+      </c>
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4">
-        <v>11722</v>
-      </c>
-      <c r="G4">
-        <v>391</v>
+      <c r="G4" t="s">
+        <v>135</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -23945,8 +24490,14 @@
       <c r="BP4">
         <v>0</v>
       </c>
+      <c r="BQ4">
+        <v>11722</v>
+      </c>
+      <c r="BR4">
+        <v>391</v>
+      </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -23957,16 +24508,16 @@
         <v>15</v>
       </c>
       <c r="D5">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>59</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -24150,6 +24701,12 @@
       </c>
       <c r="BP5">
         <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>100</v>
+      </c>
+      <c r="BR5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -24158,14 +24715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24185,7 +24742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -24193,7 +24750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -24202,13 +24759,13 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -24216,7 +24773,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -24231,7 +24788,7 @@
         <v>15246</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -24239,7 +24796,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4">
         <v>40</v>
@@ -24248,13 +24805,13 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G4">
         <v>53092</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -24283,14 +24840,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CQ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24301,13 +24860,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -24567,8 +25126,14 @@
       <c r="CO1" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="CP1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -24576,19 +25141,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>133</v>
-      </c>
       <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -24848,8 +25413,14 @@
       <c r="CO2">
         <v>0</v>
       </c>
+      <c r="CP2">
+        <v>100</v>
+      </c>
+      <c r="CQ2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:93">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -24857,19 +25428,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
+      </c>
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3">
-        <v>15246</v>
-      </c>
-      <c r="G3">
-        <v>509</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -25129,8 +25700,14 @@
       <c r="CO3">
         <v>0</v>
       </c>
+      <c r="CP3">
+        <v>15246</v>
+      </c>
+      <c r="CQ3">
+        <v>509</v>
+      </c>
     </row>
-    <row r="4" spans="1:93">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -25138,19 +25715,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4">
-        <v>53092</v>
-      </c>
-      <c r="G4">
-        <v>1328</v>
+      <c r="G4" t="s">
+        <v>135</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -25410,8 +25987,14 @@
       <c r="CO4">
         <v>0</v>
       </c>
+      <c r="CP4">
+        <v>53092</v>
+      </c>
+      <c r="CQ4">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="5" spans="1:93">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -25422,16 +26005,16 @@
         <v>15</v>
       </c>
       <c r="D5">
+        <v>78</v>
+      </c>
+      <c r="E5">
+        <v>84</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -25690,6 +26273,12 @@
       </c>
       <c r="CO5">
         <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>100</v>
+      </c>
+      <c r="CQ5">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -25698,14 +26287,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25725,7 +26314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -25748,7 +26337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -25771,7 +26360,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -25794,7 +26383,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -25802,7 +26391,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -25817,7 +26406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -25840,7 +26429,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -25863,7 +26452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -25886,7 +26475,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -25909,7 +26498,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -25932,7 +26521,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -25961,14 +26550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25979,13 +26568,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -26131,8 +26720,14 @@
       <c r="BC1" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -26143,16 +26738,16 @@
         <v>6</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -26298,8 +26893,14 @@
       <c r="BC2">
         <v>0</v>
       </c>
+      <c r="BD2">
+        <v>100</v>
+      </c>
+      <c r="BE2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -26310,16 +26911,16 @@
         <v>7</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3">
-        <v>1188</v>
-      </c>
-      <c r="G3">
-        <v>594</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -26465,8 +27066,14 @@
       <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BD3">
+        <v>1188</v>
+      </c>
+      <c r="BE3">
+        <v>594</v>
+      </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -26477,16 +27084,16 @@
         <v>8</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4">
-        <v>7900</v>
-      </c>
-      <c r="G4">
-        <v>1317</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -26632,8 +27239,14 @@
       <c r="BC4">
         <v>0</v>
       </c>
+      <c r="BD4">
+        <v>7900</v>
+      </c>
+      <c r="BE4">
+        <v>1317</v>
+      </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -26641,19 +27254,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -26799,8 +27412,14 @@
       <c r="BC5">
         <v>0</v>
       </c>
+      <c r="BD5">
+        <v>100</v>
+      </c>
+      <c r="BE5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -26811,16 +27430,16 @@
         <v>10</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6">
-        <v>1653</v>
-      </c>
-      <c r="G6">
-        <v>237</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -26966,8 +27585,14 @@
       <c r="BC6">
         <v>0</v>
       </c>
+      <c r="BD6">
+        <v>1653</v>
+      </c>
+      <c r="BE6">
+        <v>237</v>
+      </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -26978,16 +27603,16 @@
         <v>11</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
-      </c>
-      <c r="F7">
-        <v>133</v>
-      </c>
-      <c r="G7">
-        <v>27</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -27133,8 +27758,14 @@
       <c r="BC7">
         <v>0</v>
       </c>
+      <c r="BD7">
+        <v>133</v>
+      </c>
+      <c r="BE7">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -27145,16 +27776,16 @@
         <v>12</v>
       </c>
       <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8">
-        <v>1445</v>
-      </c>
-      <c r="G8">
-        <v>289</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -27300,8 +27931,14 @@
       <c r="BC8">
         <v>0</v>
       </c>
+      <c r="BD8">
+        <v>1445</v>
+      </c>
+      <c r="BE8">
+        <v>289</v>
+      </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -27312,16 +27949,16 @@
         <v>13</v>
       </c>
       <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="F9">
-        <v>133</v>
-      </c>
-      <c r="G9">
-        <v>27</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -27467,8 +28104,14 @@
       <c r="BC9">
         <v>0</v>
       </c>
+      <c r="BD9">
+        <v>133</v>
+      </c>
+      <c r="BE9">
+        <v>27</v>
+      </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -27479,16 +28122,16 @@
         <v>14</v>
       </c>
       <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>39</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10">
-        <v>328</v>
-      </c>
-      <c r="G10">
-        <v>66</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -27634,8 +28277,14 @@
       <c r="BC10">
         <v>0</v>
       </c>
+      <c r="BD10">
+        <v>328</v>
+      </c>
+      <c r="BE10">
+        <v>66</v>
+      </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -27646,16 +28295,16 @@
         <v>15</v>
       </c>
       <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>46</v>
+      </c>
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>18</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -27800,6 +28449,12 @@
       </c>
       <c r="BC11">
         <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>100</v>
+      </c>
+      <c r="BE11">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -27808,14 +28463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27835,7 +28490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27858,7 +28513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -27881,7 +28536,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -27904,7 +28559,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -27912,7 +28567,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -27927,7 +28582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -27950,7 +28605,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -27973,7 +28628,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -27996,7 +28651,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -28019,7 +28674,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -28042,7 +28697,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -28071,14 +28726,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28089,13 +28744,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -28241,8 +28896,14 @@
       <c r="BC1" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -28253,16 +28914,16 @@
         <v>6</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -28408,8 +29069,14 @@
       <c r="BC2">
         <v>0</v>
       </c>
+      <c r="BD2">
+        <v>100</v>
+      </c>
+      <c r="BE2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -28420,16 +29087,16 @@
         <v>7</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3">
-        <v>950</v>
-      </c>
-      <c r="G3">
-        <v>475</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -28575,8 +29242,14 @@
       <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BD3">
+        <v>950</v>
+      </c>
+      <c r="BE3">
+        <v>475</v>
+      </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -28587,16 +29260,16 @@
         <v>8</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4">
-        <v>4151</v>
-      </c>
-      <c r="G4">
-        <v>692</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -28742,8 +29415,14 @@
       <c r="BC4">
         <v>0</v>
       </c>
+      <c r="BD4">
+        <v>4151</v>
+      </c>
+      <c r="BE4">
+        <v>692</v>
+      </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -28751,19 +29430,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -28909,8 +29588,14 @@
       <c r="BC5">
         <v>0</v>
       </c>
+      <c r="BD5">
+        <v>100</v>
+      </c>
+      <c r="BE5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -28921,16 +29606,16 @@
         <v>10</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6">
-        <v>330</v>
-      </c>
-      <c r="G6">
-        <v>48</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -29076,8 +29761,14 @@
       <c r="BC6">
         <v>0</v>
       </c>
+      <c r="BD6">
+        <v>330</v>
+      </c>
+      <c r="BE6">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -29088,16 +29779,16 @@
         <v>11</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
-      </c>
-      <c r="F7">
-        <v>68</v>
-      </c>
-      <c r="G7">
-        <v>14</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -29243,8 +29934,14 @@
       <c r="BC7">
         <v>0</v>
       </c>
+      <c r="BD7">
+        <v>68</v>
+      </c>
+      <c r="BE7">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -29255,16 +29952,16 @@
         <v>12</v>
       </c>
       <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8">
-        <v>770</v>
-      </c>
-      <c r="G8">
-        <v>154</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -29410,8 +30107,14 @@
       <c r="BC8">
         <v>0</v>
       </c>
+      <c r="BD8">
+        <v>770</v>
+      </c>
+      <c r="BE8">
+        <v>154</v>
+      </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -29422,16 +30125,16 @@
         <v>13</v>
       </c>
       <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="F9">
-        <v>68</v>
-      </c>
-      <c r="G9">
-        <v>14</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -29577,8 +30280,14 @@
       <c r="BC9">
         <v>0</v>
       </c>
+      <c r="BD9">
+        <v>68</v>
+      </c>
+      <c r="BE9">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -29589,16 +30298,16 @@
         <v>14</v>
       </c>
       <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>39</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10">
-        <v>193</v>
-      </c>
-      <c r="G10">
-        <v>39</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -29744,8 +30453,14 @@
       <c r="BC10">
         <v>0</v>
       </c>
+      <c r="BD10">
+        <v>193</v>
+      </c>
+      <c r="BE10">
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -29756,16 +30471,16 @@
         <v>15</v>
       </c>
       <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>46</v>
+      </c>
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>18</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -29910,6 +30625,12 @@
       </c>
       <c r="BC11">
         <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>100</v>
+      </c>
+      <c r="BE11">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -29918,14 +30639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29945,7 +30666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -29968,7 +30689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -29991,7 +30712,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -30014,7 +30735,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -30022,7 +30743,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -30037,7 +30758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -30060,7 +30781,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -30083,7 +30804,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -30106,7 +30827,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -30129,7 +30850,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -30152,7 +30873,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -30181,14 +30902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30199,13 +30920,13 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>26</v>
@@ -30351,8 +31072,14 @@
       <c r="BC1" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="BD1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -30363,16 +31090,16 @@
         <v>6</v>
       </c>
       <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -30518,8 +31245,14 @@
       <c r="BC2">
         <v>0</v>
       </c>
+      <c r="BD2">
+        <v>100</v>
+      </c>
+      <c r="BE2">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -30530,16 +31263,16 @@
         <v>7</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3">
-        <v>950</v>
-      </c>
-      <c r="G3">
-        <v>475</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -30685,8 +31418,14 @@
       <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BD3">
+        <v>950</v>
+      </c>
+      <c r="BE3">
+        <v>475</v>
+      </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -30697,16 +31436,16 @@
         <v>8</v>
       </c>
       <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4">
-        <v>4151</v>
-      </c>
-      <c r="G4">
-        <v>692</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -30852,8 +31591,14 @@
       <c r="BC4">
         <v>0</v>
       </c>
+      <c r="BD4">
+        <v>4151</v>
+      </c>
+      <c r="BE4">
+        <v>692</v>
+      </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -30861,19 +31606,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -31019,8 +31764,14 @@
       <c r="BC5">
         <v>0</v>
       </c>
+      <c r="BD5">
+        <v>100</v>
+      </c>
+      <c r="BE5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -31031,16 +31782,16 @@
         <v>10</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6">
-        <v>330</v>
-      </c>
-      <c r="G6">
-        <v>48</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -31186,8 +31937,14 @@
       <c r="BC6">
         <v>0</v>
       </c>
+      <c r="BD6">
+        <v>330</v>
+      </c>
+      <c r="BE6">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -31198,16 +31955,16 @@
         <v>11</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
-      </c>
-      <c r="F7">
-        <v>68</v>
-      </c>
-      <c r="G7">
-        <v>14</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -31353,8 +32110,14 @@
       <c r="BC7">
         <v>0</v>
       </c>
+      <c r="BD7">
+        <v>68</v>
+      </c>
+      <c r="BE7">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -31365,16 +32128,16 @@
         <v>12</v>
       </c>
       <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8">
-        <v>770</v>
-      </c>
-      <c r="G8">
-        <v>154</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -31520,8 +32283,14 @@
       <c r="BC8">
         <v>0</v>
       </c>
+      <c r="BD8">
+        <v>770</v>
+      </c>
+      <c r="BE8">
+        <v>154</v>
+      </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -31532,16 +32301,16 @@
         <v>13</v>
       </c>
       <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="F9">
-        <v>68</v>
-      </c>
-      <c r="G9">
-        <v>14</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -31687,8 +32456,14 @@
       <c r="BC9">
         <v>0</v>
       </c>
+      <c r="BD9">
+        <v>68</v>
+      </c>
+      <c r="BE9">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -31699,16 +32474,16 @@
         <v>14</v>
       </c>
       <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>39</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10">
-        <v>193</v>
-      </c>
-      <c r="G10">
-        <v>39</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -31854,8 +32629,14 @@
       <c r="BC10">
         <v>0</v>
       </c>
+      <c r="BD10">
+        <v>193</v>
+      </c>
+      <c r="BE10">
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -31866,16 +32647,16 @@
         <v>15</v>
       </c>
       <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>46</v>
+      </c>
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>18</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -32020,6 +32801,12 @@
       </c>
       <c r="BC11">
         <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>100</v>
+      </c>
+      <c r="BE11">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -32028,14 +32815,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32055,7 +32842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -32063,7 +32850,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -32072,13 +32859,13 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -32086,7 +32873,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -32101,7 +32888,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -32109,7 +32896,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -32124,7 +32911,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -32132,7 +32919,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -32147,7 +32934,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -32155,7 +32942,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -32170,7 +32957,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -32178,22 +32965,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -32201,7 +32988,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -32216,7 +33003,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -32224,7 +33011,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -32239,7 +33026,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -32247,7 +33034,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -32262,7 +33049,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -32270,7 +33057,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -32285,7 +33072,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -32293,7 +33080,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -32308,7 +33095,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -32316,7 +33103,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -32331,7 +33118,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -32339,7 +33126,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -32354,7 +33141,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -32362,13 +33149,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -32377,7 +33164,7 @@
         <v>13683</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -32385,7 +33172,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -32394,13 +33181,13 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G16">
         <v>1641</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>

--- a/Civilworks cost/Work Schedule/dframes.xlsx
+++ b/Civilworks cost/Work Schedule/dframes.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\Work Schedule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="22" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Type_A_211M_724_To_935_S" sheetId="1" r:id="rId1"/>
@@ -37,7 +32,7 @@
     <sheet name="RS_3850M_M25200_TO_M36630_S" sheetId="23" r:id="rId23"/>
     <sheet name="RS_3850M_M25200_TO_M36630_S-mat" sheetId="24" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -482,8 +477,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,14 +541,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -600,7 +587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,10 +619,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,7 +653,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -843,14 +828,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -893,7 +878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -916,7 +901,7 @@
         <v>33338</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -939,7 +924,7 @@
         <v>5012</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -962,7 +947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -985,7 +970,7 @@
         <v>6974</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1008,7 +993,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1031,7 +1016,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1054,7 +1039,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1077,7 +1062,7 @@
         <v>38350</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1106,14 +1091,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CW17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:101">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,7 +1400,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1720,7 +1705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2025,7 +2010,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2330,7 +2315,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2635,7 +2620,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2940,7 +2925,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3245,7 +3230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:101">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3550,7 +3535,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:101">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3855,7 +3840,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:101">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4160,7 +4145,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:101">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4465,7 +4450,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:101">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4770,7 +4755,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:101">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5075,7 +5060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:101">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5380,7 +5365,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:101">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5685,7 +5670,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:101">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5990,7 +5975,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:101">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6301,14 +6286,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6328,7 +6313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6351,7 +6336,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6374,7 +6359,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6397,7 +6382,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6420,7 +6405,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6443,7 +6428,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6466,7 +6451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6489,7 +6474,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6512,7 +6497,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6535,7 +6520,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6558,7 +6543,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6581,7 +6566,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6604,7 +6589,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6627,7 +6612,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6650,7 +6635,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6673,7 +6658,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6702,14 +6687,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6918,7 +6903,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7130,7 +7115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7342,7 +7327,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7554,7 +7539,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7766,7 +7751,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7978,7 +7963,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8190,7 +8175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8402,7 +8387,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8614,7 +8599,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8826,7 +8811,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -9038,7 +9023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -9250,7 +9235,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -9462,7 +9447,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -9674,7 +9659,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -9886,7 +9871,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10098,7 +10083,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:70">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10316,14 +10301,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10343,7 +10328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10366,7 +10351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10389,7 +10374,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10412,7 +10397,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10435,7 +10420,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10458,7 +10443,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10481,7 +10466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10504,7 +10489,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10527,7 +10512,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10550,7 +10535,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10573,7 +10558,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10596,7 +10581,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10619,7 +10604,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10642,7 +10627,7 @@
         <v>9358</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10665,7 +10650,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10694,14 +10679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BO16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10901,7 +10886,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11104,7 +11089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:67">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11307,7 +11292,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11510,7 +11495,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11713,7 +11698,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11916,7 +11901,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12119,7 +12104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:67">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12322,7 +12307,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12525,7 +12510,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12728,7 +12713,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12931,7 +12916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -13134,7 +13119,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -13337,7 +13322,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -13540,7 +13525,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:67">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -13743,7 +13728,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -13952,16 +13937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13981,7 +13964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14004,7 +13987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14027,7 +14010,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14050,7 +14033,7 @@
         <v>11251</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -14073,7 +14056,7 @@
         <v>3388</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -14096,7 +14079,7 @@
         <v>9842</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -14125,16 +14108,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14373,7 +14354,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:80">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14615,7 +14596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:80">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14857,7 +14838,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:80">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -15099,7 +15080,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:80">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -15341,7 +15322,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:80">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -15583,7 +15564,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:80">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -15831,14 +15812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15858,7 +15839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -15881,7 +15862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -15904,7 +15885,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -15927,7 +15908,7 @@
         <v>18105</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -15950,7 +15931,7 @@
         <v>5451</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -15973,7 +15954,7 @@
         <v>15836</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -16002,16 +15983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:105">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16325,7 +16304,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:105">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -16642,7 +16621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:105">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -16959,7 +16938,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:105">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -17276,7 +17255,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:105">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17593,7 +17572,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:105">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -17910,7 +17889,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:105">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -18233,16 +18212,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18262,7 +18239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -18285,7 +18262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -18308,7 +18285,7 @@
         <v>5551</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -18331,7 +18308,7 @@
         <v>17871</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -18354,7 +18331,7 @@
         <v>5380</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -18377,7 +18354,7 @@
         <v>15632</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -18406,14 +18383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CU11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:99">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18709,7 +18686,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:99">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -19008,7 +18985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:99">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -19307,7 +19284,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:99">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -19606,7 +19583,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:99">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -19905,7 +19882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:99">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -20204,7 +20181,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:99">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -20503,7 +20480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:99">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -20802,7 +20779,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:99">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -21101,7 +21078,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:99">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -21400,7 +21377,7 @@
         <v>3835</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:99">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -21705,16 +21682,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:85">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21968,7 +21943,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -22225,7 +22200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -22482,7 +22457,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -22739,7 +22714,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -22996,7 +22971,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -23253,7 +23228,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -23516,16 +23491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23545,7 +23518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -23568,7 +23541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -23591,7 +23564,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -23614,7 +23587,7 @@
         <v>11722</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -23643,16 +23616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BR5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" activeCellId="1" sqref="C2:F5 K18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -23861,7 +23832,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -24073,7 +24044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -24285,7 +24256,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -24497,7 +24468,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -24715,14 +24686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24742,7 +24713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -24765,7 +24736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -24788,7 +24759,7 @@
         <v>15246</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -24811,7 +24782,7 @@
         <v>53092</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -24840,16 +24811,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:95">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25133,7 +25102,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:95">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -25420,7 +25389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:95">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -25707,7 +25676,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:95">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -25994,7 +25963,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:95">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -26287,14 +26256,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26314,7 +26283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -26337,7 +26306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -26360,7 +26329,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -26383,7 +26352,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -26406,7 +26375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -26429,7 +26398,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -26452,7 +26421,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -26475,7 +26444,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -26498,7 +26467,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -26521,7 +26490,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -26550,14 +26519,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26727,7 +26696,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -26900,7 +26869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -27073,7 +27042,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -27246,7 +27215,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -27419,7 +27388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -27592,7 +27561,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -27765,7 +27734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -27938,7 +27907,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -28111,7 +28080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -28284,7 +28253,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -28463,14 +28432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28490,7 +28459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -28513,7 +28482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -28536,7 +28505,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -28559,7 +28528,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -28582,7 +28551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -28605,7 +28574,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -28628,7 +28597,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -28651,7 +28620,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -28674,7 +28643,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -28697,7 +28666,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -28726,14 +28695,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -28903,7 +28872,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -29076,7 +29045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -29249,7 +29218,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -29422,7 +29391,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -29595,7 +29564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -29768,7 +29737,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -29941,7 +29910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -30114,7 +30083,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -30287,7 +30256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -30460,7 +30429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -30639,14 +30608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30666,7 +30635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -30689,7 +30658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -30712,7 +30681,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -30735,7 +30704,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -30758,7 +30727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -30781,7 +30750,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -30804,7 +30773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -30827,7 +30796,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -30850,7 +30819,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -30873,7 +30842,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -30902,14 +30871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31079,7 +31048,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -31252,7 +31221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -31425,7 +31394,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -31598,7 +31567,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -31771,7 +31740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -31944,7 +31913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -32117,7 +32086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -32290,7 +32259,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -32463,7 +32432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -32636,7 +32605,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -32815,14 +32784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32842,7 +32811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -32865,7 +32834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -32888,7 +32857,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -32911,7 +32880,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -32934,7 +32903,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -32957,7 +32926,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -32980,7 +32949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -33003,7 +32972,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -33026,7 +32995,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -33049,7 +33018,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -33072,7 +33041,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -33095,7 +33064,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -33118,7 +33087,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -33141,7 +33110,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -33164,7 +33133,7 @@
         <v>13683</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -33187,7 +33156,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>

--- a/Civilworks cost/Work Schedule/dframes.xlsx
+++ b/Civilworks cost/Work Schedule/dframes.xlsx
@@ -21,13 +21,19 @@
     <sheet name="FF_15M_at_KM_4520_S-mat" sheetId="12" r:id="rId12"/>
     <sheet name="FF_15M_at_KM_35050_S" sheetId="13" r:id="rId13"/>
     <sheet name="FF_15M_at_KM_35050_S-mat" sheetId="14" r:id="rId14"/>
+    <sheet name="T_B5_724M_M0_TO_M724_S" sheetId="15" r:id="rId15"/>
+    <sheet name="T_B5_724M_M0_TO_M724_S-mat" sheetId="16" r:id="rId16"/>
+    <sheet name="T_B5_1165M_1015_TO_2180_S" sheetId="17" r:id="rId17"/>
+    <sheet name="T_B5_1165M_1015_TO_2180_S-mat" sheetId="18" r:id="rId18"/>
+    <sheet name="T_B5_1150M_9200_TO_10350_S" sheetId="19" r:id="rId19"/>
+    <sheet name="T_B5_1150M_9200_TO_10350_S-mat" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="164">
   <si>
     <t>TaskNo</t>
   </si>
@@ -511,6 +517,15 @@
   <si>
     <t>16-470</t>
   </si>
+  <si>
+    <t>Geo Bag Placing(125 Kg)</t>
+  </si>
+  <si>
+    <t>Close Turfing</t>
+  </si>
+  <si>
+    <t>48-100</t>
+  </si>
 </sst>
 </file>
 
@@ -2387,10 +2402,10 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -2417,22 +2432,22 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>443</v>
+        <v>531</v>
       </c>
       <c r="P6">
-        <v>443</v>
+        <v>531</v>
       </c>
       <c r="Q6">
-        <v>443</v>
+        <v>531</v>
       </c>
       <c r="R6">
-        <v>443</v>
+        <v>531</v>
       </c>
       <c r="S6">
-        <v>443</v>
+        <v>531</v>
       </c>
       <c r="T6">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2585,7 +2600,7 @@
         <v>2655</v>
       </c>
       <c r="BS6">
-        <v>443</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -3462,10 +3477,10 @@
         <v>30</v>
       </c>
       <c r="E11">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
@@ -3558,43 +3573,43 @@
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AL11">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AM11">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AN11">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AO11">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AP11">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AQ11">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -3660,7 +3675,7 @@
         <v>361</v>
       </c>
       <c r="BS11">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -3677,10 +3692,10 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -3773,43 +3788,43 @@
         <v>0</v>
       </c>
       <c r="AK12">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="AL12">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="AM12">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="AN12">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="AO12">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="AP12">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="AQ12">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -3875,7 +3890,7 @@
         <v>2457</v>
       </c>
       <c r="BS12">
-        <v>351</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -3892,10 +3907,10 @@
         <v>30</v>
       </c>
       <c r="E13">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -3988,43 +4003,43 @@
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="AL13">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="AM13">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="AN13">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="AO13">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="AP13">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="AQ13">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -4090,7 +4105,7 @@
         <v>480</v>
       </c>
       <c r="BS13">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -4107,10 +4122,10 @@
         <v>30</v>
       </c>
       <c r="E14">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
@@ -4203,43 +4218,43 @@
         <v>0</v>
       </c>
       <c r="AK14">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AL14">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AM14">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AN14">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AO14">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AP14">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AQ14">
-        <v>575</v>
+        <v>310</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -4305,7 +4320,7 @@
         <v>4021</v>
       </c>
       <c r="BS14">
-        <v>575</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -4322,10 +4337,10 @@
         <v>30</v>
       </c>
       <c r="E15">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
@@ -4418,43 +4433,43 @@
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>1955</v>
+        <v>1053</v>
       </c>
       <c r="AL15">
-        <v>1955</v>
+        <v>1053</v>
       </c>
       <c r="AM15">
-        <v>1955</v>
+        <v>1053</v>
       </c>
       <c r="AN15">
-        <v>1955</v>
+        <v>1053</v>
       </c>
       <c r="AO15">
-        <v>1955</v>
+        <v>1053</v>
       </c>
       <c r="AP15">
-        <v>1955</v>
+        <v>1053</v>
       </c>
       <c r="AQ15">
-        <v>1955</v>
+        <v>1053</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="AX15">
         <v>0</v>
@@ -4520,7 +4535,7 @@
         <v>13683</v>
       </c>
       <c r="BS15">
-        <v>1955</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -4534,10 +4549,10 @@
         <v>151</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E16">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F16">
         <v>7</v>
@@ -4654,43 +4669,43 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="AU16">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="AV16">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="AX16">
         <v>235</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="AZ16">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="BD16">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="BE16">
         <v>0</v>
@@ -4749,10 +4764,10 @@
         <v>20</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -4890,43 +4905,43 @@
         <v>0</v>
       </c>
       <c r="AY17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AZ17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BA17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BB17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BC17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BD17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BE17">
         <v>15</v>
       </c>
       <c r="BF17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BG17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BH17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BI17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BJ17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BK17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BL17">
         <v>0</v>
@@ -5234,7 +5249,7 @@
         <v>146</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -5260,7 +5275,7 @@
         <v>147</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -5286,7 +5301,7 @@
         <v>148</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -5312,7 +5327,7 @@
         <v>149</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -5338,7 +5353,7 @@
         <v>150</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>9</v>
@@ -7579,10 +7594,10 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
@@ -7669,31 +7684,31 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AJ11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AK11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AL11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AM11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -7777,7 +7792,7 @@
         <v>268</v>
       </c>
       <c r="BS11">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -7794,10 +7809,10 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -7884,31 +7899,31 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="AJ12">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="AK12">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="AL12">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="AM12">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -7992,7 +8007,7 @@
         <v>1837</v>
       </c>
       <c r="BS12">
-        <v>368</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -8009,10 +8024,10 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -8099,31 +8114,31 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AJ13">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AK13">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AL13">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AM13">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -8207,7 +8222,7 @@
         <v>358</v>
       </c>
       <c r="BS13">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -8224,10 +8239,10 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
@@ -8314,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="AJ14">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="AK14">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="AL14">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="AM14">
-        <v>371</v>
+        <v>206</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -8422,7 +8437,7 @@
         <v>1851</v>
       </c>
       <c r="BS14">
-        <v>371</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -8439,10 +8454,10 @@
         <v>28</v>
       </c>
       <c r="E15">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
@@ -8529,31 +8544,31 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>2001</v>
+        <v>1112</v>
       </c>
       <c r="AJ15">
-        <v>2001</v>
+        <v>1112</v>
       </c>
       <c r="AK15">
-        <v>2001</v>
+        <v>1112</v>
       </c>
       <c r="AL15">
-        <v>2001</v>
+        <v>1112</v>
       </c>
       <c r="AM15">
-        <v>2001</v>
+        <v>1112</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -8637,7 +8652,7 @@
         <v>10005</v>
       </c>
       <c r="BS15">
-        <v>2001</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -8651,10 +8666,10 @@
         <v>151</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E16">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -8759,31 +8774,31 @@
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="AR16">
         <v>237</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="AV16">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="AW16">
         <v>0</v>
@@ -8866,10 +8881,10 @@
         <v>20</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E17">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -8989,16 +9004,16 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AU17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AV17">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW17">
         <v>15</v>
@@ -9010,16 +9025,16 @@
         <v>15</v>
       </c>
       <c r="AZ17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BD17">
         <v>0</v>
@@ -9077,7 +9092,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9351,7 +9366,7 @@
         <v>146</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -9377,7 +9392,7 @@
         <v>147</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -9403,7 +9418,7 @@
         <v>148</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -9426,10 +9441,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -9438,10 +9453,10 @@
         <v>24</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>10005</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9452,22 +9467,22 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="G15">
-        <v>10005</v>
+        <v>1185</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9478,47 +9493,21 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="G16">
-        <v>1185</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-      <c r="H17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9529,7 +9518,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS17"/>
+  <dimension ref="A1:BS16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11696,10 +11685,10 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
@@ -11786,31 +11775,31 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AJ11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AK11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AL11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AM11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -11894,7 +11883,7 @@
         <v>268</v>
       </c>
       <c r="BS11">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -11911,10 +11900,10 @@
         <v>28</v>
       </c>
       <c r="E12">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -12001,31 +11990,31 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="AJ12">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="AK12">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="AL12">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="AM12">
-        <v>368</v>
+        <v>205</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -12109,7 +12098,7 @@
         <v>1837</v>
       </c>
       <c r="BS12">
-        <v>368</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -12126,10 +12115,10 @@
         <v>28</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -12216,31 +12205,31 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AJ13">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AK13">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AL13">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AM13">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -12324,7 +12313,7 @@
         <v>358</v>
       </c>
       <c r="BS13">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -12335,16 +12324,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>28</v>
       </c>
       <c r="E14">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
@@ -12431,31 +12420,31 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1112</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -12536,10 +12525,10 @@
         <v>0</v>
       </c>
       <c r="BR14">
-        <v>0</v>
+        <v>10005</v>
       </c>
       <c r="BS14">
-        <v>0</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -12550,19 +12539,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E15">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -12646,19 +12635,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="AL15">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="AM15">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="AN15">
         <v>0</v>
@@ -12673,16 +12662,16 @@
         <v>0</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="AV15">
         <v>0</v>
@@ -12751,10 +12740,10 @@
         <v>0</v>
       </c>
       <c r="BR15">
-        <v>10005</v>
+        <v>1185</v>
       </c>
       <c r="BS15">
-        <v>2001</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -12765,426 +12754,4468 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="E16">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>15</v>
+      </c>
+      <c r="AW16">
+        <v>15</v>
+      </c>
+      <c r="AX16">
+        <v>15</v>
+      </c>
+      <c r="AY16">
+        <v>15</v>
+      </c>
+      <c r="AZ16">
+        <v>15</v>
+      </c>
+      <c r="BA16">
+        <v>15</v>
+      </c>
+      <c r="BB16">
+        <v>15</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BK16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>100</v>
+      </c>
+      <c r="BS16">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>3495</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>11251</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="E16">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>3388</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>9842</v>
+      </c>
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BS7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:71">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>100</v>
+      </c>
+      <c r="BS2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>233</v>
+      </c>
+      <c r="P3">
+        <v>233</v>
+      </c>
+      <c r="Q3">
+        <v>233</v>
+      </c>
+      <c r="R3">
+        <v>233</v>
+      </c>
+      <c r="S3">
+        <v>233</v>
+      </c>
+      <c r="T3">
+        <v>233</v>
+      </c>
+      <c r="U3">
+        <v>233</v>
+      </c>
+      <c r="V3">
+        <v>233</v>
+      </c>
+      <c r="W3">
+        <v>233</v>
+      </c>
+      <c r="X3">
+        <v>233</v>
+      </c>
+      <c r="Y3">
+        <v>233</v>
+      </c>
+      <c r="Z3">
+        <v>233</v>
+      </c>
+      <c r="AA3">
+        <v>233</v>
+      </c>
+      <c r="AB3">
+        <v>233</v>
+      </c>
+      <c r="AC3">
+        <v>233</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>3495</v>
+      </c>
+      <c r="BS3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>662</v>
+      </c>
+      <c r="AE4">
+        <v>662</v>
+      </c>
+      <c r="AF4">
+        <v>662</v>
+      </c>
+      <c r="AG4">
+        <v>662</v>
+      </c>
+      <c r="AH4">
+        <v>662</v>
+      </c>
+      <c r="AI4">
+        <v>662</v>
+      </c>
+      <c r="AJ4">
+        <v>662</v>
+      </c>
+      <c r="AK4">
+        <v>662</v>
+      </c>
+      <c r="AL4">
+        <v>662</v>
+      </c>
+      <c r="AM4">
+        <v>662</v>
+      </c>
+      <c r="AN4">
+        <v>662</v>
+      </c>
+      <c r="AO4">
+        <v>662</v>
+      </c>
+      <c r="AP4">
+        <v>662</v>
+      </c>
+      <c r="AQ4">
+        <v>662</v>
+      </c>
+      <c r="AR4">
+        <v>662</v>
+      </c>
+      <c r="AS4">
+        <v>662</v>
+      </c>
+      <c r="AT4">
+        <v>662</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>11251</v>
+      </c>
+      <c r="BS4">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>200</v>
+      </c>
+      <c r="AE5">
+        <v>200</v>
+      </c>
+      <c r="AF5">
+        <v>200</v>
+      </c>
+      <c r="AG5">
+        <v>200</v>
+      </c>
+      <c r="AH5">
+        <v>200</v>
+      </c>
+      <c r="AI5">
+        <v>200</v>
+      </c>
+      <c r="AJ5">
+        <v>200</v>
+      </c>
+      <c r="AK5">
+        <v>200</v>
+      </c>
+      <c r="AL5">
+        <v>200</v>
+      </c>
+      <c r="AM5">
+        <v>200</v>
+      </c>
+      <c r="AN5">
+        <v>200</v>
+      </c>
+      <c r="AO5">
+        <v>200</v>
+      </c>
+      <c r="AP5">
+        <v>200</v>
+      </c>
+      <c r="AQ5">
+        <v>200</v>
+      </c>
+      <c r="AR5">
+        <v>200</v>
+      </c>
+      <c r="AS5">
+        <v>200</v>
+      </c>
+      <c r="AT5">
+        <v>200</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>3388</v>
+      </c>
+      <c r="BS5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>579</v>
+      </c>
+      <c r="AE6">
+        <v>579</v>
+      </c>
+      <c r="AF6">
+        <v>579</v>
+      </c>
+      <c r="AG6">
+        <v>579</v>
+      </c>
+      <c r="AH6">
+        <v>579</v>
+      </c>
+      <c r="AI6">
+        <v>579</v>
+      </c>
+      <c r="AJ6">
+        <v>579</v>
+      </c>
+      <c r="AK6">
+        <v>579</v>
+      </c>
+      <c r="AL6">
+        <v>579</v>
+      </c>
+      <c r="AM6">
+        <v>579</v>
+      </c>
+      <c r="AN6">
+        <v>579</v>
+      </c>
+      <c r="AO6">
+        <v>579</v>
+      </c>
+      <c r="AP6">
+        <v>579</v>
+      </c>
+      <c r="AQ6">
+        <v>579</v>
+      </c>
+      <c r="AR6">
+        <v>579</v>
+      </c>
+      <c r="AS6">
+        <v>579</v>
+      </c>
+      <c r="AT6">
+        <v>579</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>9842</v>
+      </c>
+      <c r="BS6">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>15</v>
+      </c>
+      <c r="AV7">
+        <v>15</v>
+      </c>
+      <c r="AW7">
+        <v>15</v>
+      </c>
+      <c r="AX7">
+        <v>15</v>
+      </c>
+      <c r="AY7">
+        <v>15</v>
+      </c>
+      <c r="AZ7">
+        <v>15</v>
+      </c>
+      <c r="BA7">
+        <v>15</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>100</v>
+      </c>
+      <c r="BS7">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>5623</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>18105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>5451</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6">
+        <v>15836</v>
+      </c>
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CX7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:102">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:102">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>100</v>
+      </c>
+      <c r="CX2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:102">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>37</v>
       </c>
-      <c r="F16">
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>188</v>
+      </c>
+      <c r="P3">
+        <v>188</v>
+      </c>
+      <c r="Q3">
+        <v>188</v>
+      </c>
+      <c r="R3">
+        <v>188</v>
+      </c>
+      <c r="S3">
+        <v>188</v>
+      </c>
+      <c r="T3">
+        <v>188</v>
+      </c>
+      <c r="U3">
+        <v>188</v>
+      </c>
+      <c r="V3">
+        <v>188</v>
+      </c>
+      <c r="W3">
+        <v>188</v>
+      </c>
+      <c r="X3">
+        <v>188</v>
+      </c>
+      <c r="Y3">
+        <v>188</v>
+      </c>
+      <c r="Z3">
+        <v>188</v>
+      </c>
+      <c r="AA3">
+        <v>188</v>
+      </c>
+      <c r="AB3">
+        <v>188</v>
+      </c>
+      <c r="AC3">
+        <v>188</v>
+      </c>
+      <c r="AD3">
+        <v>188</v>
+      </c>
+      <c r="AE3">
+        <v>188</v>
+      </c>
+      <c r="AF3">
+        <v>188</v>
+      </c>
+      <c r="AG3">
+        <v>188</v>
+      </c>
+      <c r="AH3">
+        <v>188</v>
+      </c>
+      <c r="AI3">
+        <v>188</v>
+      </c>
+      <c r="AJ3">
+        <v>188</v>
+      </c>
+      <c r="AK3">
+        <v>188</v>
+      </c>
+      <c r="AL3">
+        <v>188</v>
+      </c>
+      <c r="AM3">
+        <v>188</v>
+      </c>
+      <c r="AN3">
+        <v>188</v>
+      </c>
+      <c r="AO3">
+        <v>188</v>
+      </c>
+      <c r="AP3">
+        <v>188</v>
+      </c>
+      <c r="AQ3">
+        <v>188</v>
+      </c>
+      <c r="AR3">
+        <v>188</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>5623</v>
+      </c>
+      <c r="CX3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:102">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>503</v>
+      </c>
+      <c r="AT4">
+        <v>503</v>
+      </c>
+      <c r="AU4">
+        <v>503</v>
+      </c>
+      <c r="AV4">
+        <v>503</v>
+      </c>
+      <c r="AW4">
+        <v>503</v>
+      </c>
+      <c r="AX4">
+        <v>503</v>
+      </c>
+      <c r="AY4">
+        <v>503</v>
+      </c>
+      <c r="AZ4">
+        <v>503</v>
+      </c>
+      <c r="BA4">
+        <v>503</v>
+      </c>
+      <c r="BB4">
+        <v>503</v>
+      </c>
+      <c r="BC4">
+        <v>503</v>
+      </c>
+      <c r="BD4">
+        <v>503</v>
+      </c>
+      <c r="BE4">
+        <v>503</v>
+      </c>
+      <c r="BF4">
+        <v>503</v>
+      </c>
+      <c r="BG4">
+        <v>503</v>
+      </c>
+      <c r="BH4">
+        <v>503</v>
+      </c>
+      <c r="BI4">
+        <v>503</v>
+      </c>
+      <c r="BJ4">
+        <v>503</v>
+      </c>
+      <c r="BK4">
+        <v>503</v>
+      </c>
+      <c r="BL4">
+        <v>503</v>
+      </c>
+      <c r="BM4">
+        <v>503</v>
+      </c>
+      <c r="BN4">
+        <v>503</v>
+      </c>
+      <c r="BO4">
+        <v>503</v>
+      </c>
+      <c r="BP4">
+        <v>503</v>
+      </c>
+      <c r="BQ4">
+        <v>503</v>
+      </c>
+      <c r="BR4">
+        <v>503</v>
+      </c>
+      <c r="BS4">
+        <v>503</v>
+      </c>
+      <c r="BT4">
+        <v>503</v>
+      </c>
+      <c r="BU4">
+        <v>503</v>
+      </c>
+      <c r="BV4">
+        <v>503</v>
+      </c>
+      <c r="BW4">
+        <v>503</v>
+      </c>
+      <c r="BX4">
+        <v>503</v>
+      </c>
+      <c r="BY4">
+        <v>503</v>
+      </c>
+      <c r="BZ4">
+        <v>503</v>
+      </c>
+      <c r="CA4">
+        <v>503</v>
+      </c>
+      <c r="CB4">
+        <v>503</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>18105</v>
+      </c>
+      <c r="CX4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>210</v>
+      </c>
+      <c r="AT5">
+        <v>210</v>
+      </c>
+      <c r="AU5">
+        <v>210</v>
+      </c>
+      <c r="AV5">
+        <v>210</v>
+      </c>
+      <c r="AW5">
+        <v>210</v>
+      </c>
+      <c r="AX5">
+        <v>210</v>
+      </c>
+      <c r="AY5">
+        <v>210</v>
+      </c>
+      <c r="AZ5">
+        <v>210</v>
+      </c>
+      <c r="BA5">
+        <v>210</v>
+      </c>
+      <c r="BB5">
+        <v>210</v>
+      </c>
+      <c r="BC5">
+        <v>210</v>
+      </c>
+      <c r="BD5">
+        <v>210</v>
+      </c>
+      <c r="BE5">
+        <v>210</v>
+      </c>
+      <c r="BF5">
+        <v>210</v>
+      </c>
+      <c r="BG5">
+        <v>210</v>
+      </c>
+      <c r="BH5">
+        <v>210</v>
+      </c>
+      <c r="BI5">
+        <v>210</v>
+      </c>
+      <c r="BJ5">
+        <v>210</v>
+      </c>
+      <c r="BK5">
+        <v>210</v>
+      </c>
+      <c r="BL5">
+        <v>210</v>
+      </c>
+      <c r="BM5">
+        <v>210</v>
+      </c>
+      <c r="BN5">
+        <v>210</v>
+      </c>
+      <c r="BO5">
+        <v>210</v>
+      </c>
+      <c r="BP5">
+        <v>210</v>
+      </c>
+      <c r="BQ5">
+        <v>210</v>
+      </c>
+      <c r="BR5">
+        <v>210</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>5451</v>
+      </c>
+      <c r="CX5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="G16" t="s">
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
         <v>153</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>237</v>
-      </c>
-      <c r="AO16">
-        <v>237</v>
-      </c>
-      <c r="AP16">
-        <v>237</v>
-      </c>
-      <c r="AQ16">
-        <v>237</v>
-      </c>
-      <c r="AR16">
-        <v>237</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
-      </c>
-      <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>0</v>
-      </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
-        <v>0</v>
-      </c>
-      <c r="BD16">
-        <v>0</v>
-      </c>
-      <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
-        <v>0</v>
-      </c>
-      <c r="BG16">
-        <v>0</v>
-      </c>
-      <c r="BH16">
-        <v>0</v>
-      </c>
-      <c r="BI16">
-        <v>0</v>
-      </c>
-      <c r="BJ16">
-        <v>0</v>
-      </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BM16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>0</v>
-      </c>
-      <c r="BO16">
-        <v>0</v>
-      </c>
-      <c r="BP16">
-        <v>0</v>
-      </c>
-      <c r="BQ16">
-        <v>0</v>
-      </c>
-      <c r="BR16">
-        <v>1185</v>
-      </c>
-      <c r="BS16">
-        <v>237</v>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>610</v>
+      </c>
+      <c r="AT6">
+        <v>610</v>
+      </c>
+      <c r="AU6">
+        <v>610</v>
+      </c>
+      <c r="AV6">
+        <v>610</v>
+      </c>
+      <c r="AW6">
+        <v>610</v>
+      </c>
+      <c r="AX6">
+        <v>610</v>
+      </c>
+      <c r="AY6">
+        <v>610</v>
+      </c>
+      <c r="AZ6">
+        <v>610</v>
+      </c>
+      <c r="BA6">
+        <v>610</v>
+      </c>
+      <c r="BB6">
+        <v>610</v>
+      </c>
+      <c r="BC6">
+        <v>610</v>
+      </c>
+      <c r="BD6">
+        <v>610</v>
+      </c>
+      <c r="BE6">
+        <v>610</v>
+      </c>
+      <c r="BF6">
+        <v>610</v>
+      </c>
+      <c r="BG6">
+        <v>610</v>
+      </c>
+      <c r="BH6">
+        <v>610</v>
+      </c>
+      <c r="BI6">
+        <v>610</v>
+      </c>
+      <c r="BJ6">
+        <v>610</v>
+      </c>
+      <c r="BK6">
+        <v>610</v>
+      </c>
+      <c r="BL6">
+        <v>610</v>
+      </c>
+      <c r="BM6">
+        <v>610</v>
+      </c>
+      <c r="BN6">
+        <v>610</v>
+      </c>
+      <c r="BO6">
+        <v>610</v>
+      </c>
+      <c r="BP6">
+        <v>610</v>
+      </c>
+      <c r="BQ6">
+        <v>610</v>
+      </c>
+      <c r="BR6">
+        <v>610</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>15836</v>
+      </c>
+      <c r="CX6">
+        <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:71">
-      <c r="A17" s="1">
+    <row r="7" spans="1:102">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="BT7">
+        <v>15</v>
+      </c>
+      <c r="BU7">
+        <v>15</v>
+      </c>
+      <c r="BV7">
+        <v>15</v>
+      </c>
+      <c r="BW7">
+        <v>15</v>
+      </c>
+      <c r="BX7">
+        <v>15</v>
+      </c>
+      <c r="BY7">
+        <v>15</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>100</v>
+      </c>
+      <c r="CX7">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>5551</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>17871</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>5380</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6">
+        <v>15632</v>
+      </c>
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D17">
-        <v>38</v>
-      </c>
-      <c r="E17">
-        <v>44</v>
-      </c>
-      <c r="F17">
+      <c r="D7">
         <v>7</v>
       </c>
-      <c r="G17" t="s">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>15</v>
-      </c>
-      <c r="AT17">
-        <v>15</v>
-      </c>
-      <c r="AU17">
-        <v>15</v>
-      </c>
-      <c r="AV17">
-        <v>15</v>
-      </c>
-      <c r="AW17">
-        <v>15</v>
-      </c>
-      <c r="AX17">
-        <v>15</v>
-      </c>
-      <c r="AY17">
-        <v>15</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
-      </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17">
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="BS17">
-        <v>15</v>
+      <c r="H7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -16590,6 +20621,1521 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BS7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:71">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>100</v>
+      </c>
+      <c r="BS2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:71">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>371</v>
+      </c>
+      <c r="P3">
+        <v>371</v>
+      </c>
+      <c r="Q3">
+        <v>371</v>
+      </c>
+      <c r="R3">
+        <v>371</v>
+      </c>
+      <c r="S3">
+        <v>371</v>
+      </c>
+      <c r="T3">
+        <v>371</v>
+      </c>
+      <c r="U3">
+        <v>371</v>
+      </c>
+      <c r="V3">
+        <v>371</v>
+      </c>
+      <c r="W3">
+        <v>371</v>
+      </c>
+      <c r="X3">
+        <v>371</v>
+      </c>
+      <c r="Y3">
+        <v>371</v>
+      </c>
+      <c r="Z3">
+        <v>371</v>
+      </c>
+      <c r="AA3">
+        <v>371</v>
+      </c>
+      <c r="AB3">
+        <v>371</v>
+      </c>
+      <c r="AC3">
+        <v>371</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>5551</v>
+      </c>
+      <c r="BS3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:71">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>662</v>
+      </c>
+      <c r="AE4">
+        <v>662</v>
+      </c>
+      <c r="AF4">
+        <v>662</v>
+      </c>
+      <c r="AG4">
+        <v>662</v>
+      </c>
+      <c r="AH4">
+        <v>662</v>
+      </c>
+      <c r="AI4">
+        <v>662</v>
+      </c>
+      <c r="AJ4">
+        <v>662</v>
+      </c>
+      <c r="AK4">
+        <v>662</v>
+      </c>
+      <c r="AL4">
+        <v>662</v>
+      </c>
+      <c r="AM4">
+        <v>662</v>
+      </c>
+      <c r="AN4">
+        <v>662</v>
+      </c>
+      <c r="AO4">
+        <v>662</v>
+      </c>
+      <c r="AP4">
+        <v>662</v>
+      </c>
+      <c r="AQ4">
+        <v>662</v>
+      </c>
+      <c r="AR4">
+        <v>662</v>
+      </c>
+      <c r="AS4">
+        <v>662</v>
+      </c>
+      <c r="AT4">
+        <v>662</v>
+      </c>
+      <c r="AU4">
+        <v>662</v>
+      </c>
+      <c r="AV4">
+        <v>662</v>
+      </c>
+      <c r="AW4">
+        <v>662</v>
+      </c>
+      <c r="AX4">
+        <v>662</v>
+      </c>
+      <c r="AY4">
+        <v>662</v>
+      </c>
+      <c r="AZ4">
+        <v>662</v>
+      </c>
+      <c r="BA4">
+        <v>662</v>
+      </c>
+      <c r="BB4">
+        <v>662</v>
+      </c>
+      <c r="BC4">
+        <v>662</v>
+      </c>
+      <c r="BD4">
+        <v>662</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>17871</v>
+      </c>
+      <c r="BS4">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:71">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>200</v>
+      </c>
+      <c r="AE5">
+        <v>200</v>
+      </c>
+      <c r="AF5">
+        <v>200</v>
+      </c>
+      <c r="AG5">
+        <v>200</v>
+      </c>
+      <c r="AH5">
+        <v>200</v>
+      </c>
+      <c r="AI5">
+        <v>200</v>
+      </c>
+      <c r="AJ5">
+        <v>200</v>
+      </c>
+      <c r="AK5">
+        <v>200</v>
+      </c>
+      <c r="AL5">
+        <v>200</v>
+      </c>
+      <c r="AM5">
+        <v>200</v>
+      </c>
+      <c r="AN5">
+        <v>200</v>
+      </c>
+      <c r="AO5">
+        <v>200</v>
+      </c>
+      <c r="AP5">
+        <v>200</v>
+      </c>
+      <c r="AQ5">
+        <v>200</v>
+      </c>
+      <c r="AR5">
+        <v>200</v>
+      </c>
+      <c r="AS5">
+        <v>200</v>
+      </c>
+      <c r="AT5">
+        <v>200</v>
+      </c>
+      <c r="AU5">
+        <v>200</v>
+      </c>
+      <c r="AV5">
+        <v>200</v>
+      </c>
+      <c r="AW5">
+        <v>200</v>
+      </c>
+      <c r="AX5">
+        <v>200</v>
+      </c>
+      <c r="AY5">
+        <v>200</v>
+      </c>
+      <c r="AZ5">
+        <v>200</v>
+      </c>
+      <c r="BA5">
+        <v>200</v>
+      </c>
+      <c r="BB5">
+        <v>200</v>
+      </c>
+      <c r="BC5">
+        <v>200</v>
+      </c>
+      <c r="BD5">
+        <v>200</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>5380</v>
+      </c>
+      <c r="BS5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:71">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>49</v>
+      </c>
+      <c r="F6">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>579</v>
+      </c>
+      <c r="AE6">
+        <v>579</v>
+      </c>
+      <c r="AF6">
+        <v>579</v>
+      </c>
+      <c r="AG6">
+        <v>579</v>
+      </c>
+      <c r="AH6">
+        <v>579</v>
+      </c>
+      <c r="AI6">
+        <v>579</v>
+      </c>
+      <c r="AJ6">
+        <v>579</v>
+      </c>
+      <c r="AK6">
+        <v>579</v>
+      </c>
+      <c r="AL6">
+        <v>579</v>
+      </c>
+      <c r="AM6">
+        <v>579</v>
+      </c>
+      <c r="AN6">
+        <v>579</v>
+      </c>
+      <c r="AO6">
+        <v>579</v>
+      </c>
+      <c r="AP6">
+        <v>579</v>
+      </c>
+      <c r="AQ6">
+        <v>579</v>
+      </c>
+      <c r="AR6">
+        <v>579</v>
+      </c>
+      <c r="AS6">
+        <v>579</v>
+      </c>
+      <c r="AT6">
+        <v>579</v>
+      </c>
+      <c r="AU6">
+        <v>579</v>
+      </c>
+      <c r="AV6">
+        <v>579</v>
+      </c>
+      <c r="AW6">
+        <v>579</v>
+      </c>
+      <c r="AX6">
+        <v>579</v>
+      </c>
+      <c r="AY6">
+        <v>579</v>
+      </c>
+      <c r="AZ6">
+        <v>579</v>
+      </c>
+      <c r="BA6">
+        <v>579</v>
+      </c>
+      <c r="BB6">
+        <v>579</v>
+      </c>
+      <c r="BC6">
+        <v>579</v>
+      </c>
+      <c r="BD6">
+        <v>579</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>15632</v>
+      </c>
+      <c r="BS6">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:71">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>56</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>15</v>
+      </c>
+      <c r="BF7">
+        <v>15</v>
+      </c>
+      <c r="BG7">
+        <v>15</v>
+      </c>
+      <c r="BH7">
+        <v>15</v>
+      </c>
+      <c r="BI7">
+        <v>15</v>
+      </c>
+      <c r="BJ7">
+        <v>15</v>
+      </c>
+      <c r="BK7">
+        <v>15</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>100</v>
+      </c>
+      <c r="BS7">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
@@ -24815,7 +30361,7 @@
         <v>142</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -24945,7 +30491,7 @@
         <v>146</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -24971,7 +30517,7 @@
         <v>147</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -24997,7 +30543,7 @@
         <v>148</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>9</v>
@@ -25023,7 +30569,7 @@
         <v>149</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -25049,7 +30595,7 @@
         <v>150</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>9</v>
